--- a/data/data.xlsx
+++ b/data/data.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="27">
   <si>
     <t xml:space="preserve">Week </t>
   </si>
@@ -72,6 +72,30 @@
   </si>
   <si>
     <t>Correlation</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>word count</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TA:POI </t>
+  </si>
+  <si>
+    <t xml:space="preserve">TA:MP </t>
+  </si>
+  <si>
+    <t xml:space="preserve">TA:LP </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mead:POI </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mead:MP </t>
+  </si>
+  <si>
+    <t>Mead:LP</t>
   </si>
 </sst>
 </file>
@@ -98,12 +122,27 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -112,13 +151,13 @@
   </cellStyleXfs>
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -804,10 +843,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J30"/>
+  <dimension ref="A1:T30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="L29" sqref="L29"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H11" sqref="H11:L11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -818,10 +857,13 @@
     <col min="4" max="4" width="9.42578125" style="1" customWidth="1"/>
     <col min="5" max="7" width="15" style="1" customWidth="1"/>
     <col min="8" max="10" width="9.5703125" style="1" customWidth="1"/>
-    <col min="11" max="16384" width="9.140625" style="1"/>
+    <col min="11" max="11" width="8.28515625" style="1" customWidth="1"/>
+    <col min="12" max="17" width="9.140625" style="1"/>
+    <col min="18" max="18" width="12" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="E1" s="2" t="s">
         <v>8</v>
       </c>
@@ -832,8 +874,18 @@
       </c>
       <c r="I1" s="2"/>
       <c r="J1" s="2"/>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="L1" s="2"/>
+      <c r="M1" s="2"/>
+      <c r="N1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="O1" s="2"/>
+      <c r="P1" s="2"/>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -864,8 +916,35 @@
       <c r="J2" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="R2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="S2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="T2" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -896,8 +975,41 @@
       <c r="J3" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K3" s="1">
+        <v>19</v>
+      </c>
+      <c r="L3" s="1">
+        <v>12</v>
+      </c>
+      <c r="M3" s="1">
+        <v>15</v>
+      </c>
+      <c r="N3" s="1">
+        <v>76</v>
+      </c>
+      <c r="O3" s="1">
+        <v>85</v>
+      </c>
+      <c r="P3" s="1">
+        <v>46</v>
+      </c>
+      <c r="Q3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="R3" s="1">
+        <f>TTEST(K3:K14,N3:N14,1,1)</f>
+        <v>4.752847749225631E-7</v>
+      </c>
+      <c r="S3" s="1">
+        <f t="shared" ref="S3:T3" si="0">TTEST(L3:L14,O3:O14,1,1)</f>
+        <v>2.1697018587636549E-7</v>
+      </c>
+      <c r="T3" s="1">
+        <f t="shared" si="0"/>
+        <v>2.7685848184752116E-7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -928,8 +1040,26 @@
       <c r="J4" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K4" s="1">
+        <v>15</v>
+      </c>
+      <c r="L4" s="1">
+        <v>30</v>
+      </c>
+      <c r="M4" s="1">
+        <v>11</v>
+      </c>
+      <c r="N4" s="1">
+        <v>91</v>
+      </c>
+      <c r="O4" s="1">
+        <v>93</v>
+      </c>
+      <c r="P4" s="1">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -960,8 +1090,26 @@
       <c r="J5" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K5" s="1">
+        <v>30</v>
+      </c>
+      <c r="L5" s="1">
+        <v>25</v>
+      </c>
+      <c r="M5" s="1">
+        <v>40</v>
+      </c>
+      <c r="N5" s="1">
+        <v>62</v>
+      </c>
+      <c r="O5" s="1">
+        <v>68</v>
+      </c>
+      <c r="P5" s="1">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -992,8 +1140,26 @@
       <c r="J6" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K6" s="1">
+        <v>17</v>
+      </c>
+      <c r="L6" s="1">
+        <v>31</v>
+      </c>
+      <c r="M6" s="1">
+        <v>17</v>
+      </c>
+      <c r="N6" s="1">
+        <v>62</v>
+      </c>
+      <c r="O6" s="1">
+        <v>70</v>
+      </c>
+      <c r="P6" s="1">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -1024,8 +1190,26 @@
       <c r="J7" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K7" s="1">
+        <v>19</v>
+      </c>
+      <c r="L7" s="1">
+        <v>45</v>
+      </c>
+      <c r="M7" s="1">
+        <v>25</v>
+      </c>
+      <c r="N7" s="1">
+        <v>51</v>
+      </c>
+      <c r="O7" s="1">
+        <v>85</v>
+      </c>
+      <c r="P7" s="1">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -1056,8 +1240,26 @@
       <c r="J8" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K8" s="1">
+        <v>17</v>
+      </c>
+      <c r="L8" s="1">
+        <v>19</v>
+      </c>
+      <c r="M8" s="1">
+        <v>24</v>
+      </c>
+      <c r="N8" s="1">
+        <v>50</v>
+      </c>
+      <c r="O8" s="1">
+        <v>49</v>
+      </c>
+      <c r="P8" s="1">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -1088,8 +1290,26 @@
       <c r="J9" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K9" s="1">
+        <v>27</v>
+      </c>
+      <c r="L9" s="1">
+        <v>31</v>
+      </c>
+      <c r="M9" s="1">
+        <v>10</v>
+      </c>
+      <c r="N9" s="1">
+        <v>56</v>
+      </c>
+      <c r="O9" s="1">
+        <v>72</v>
+      </c>
+      <c r="P9" s="1">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -1120,8 +1340,26 @@
       <c r="J10" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K10" s="1">
+        <v>27</v>
+      </c>
+      <c r="L10" s="1">
+        <v>32</v>
+      </c>
+      <c r="M10" s="1">
+        <v>15</v>
+      </c>
+      <c r="N10" s="1">
+        <v>65</v>
+      </c>
+      <c r="O10" s="1">
+        <v>70</v>
+      </c>
+      <c r="P10" s="1">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -1152,8 +1390,26 @@
       <c r="J11" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K11" s="1">
+        <v>59</v>
+      </c>
+      <c r="L11" s="1">
+        <v>83</v>
+      </c>
+      <c r="M11" s="1">
+        <v>13</v>
+      </c>
+      <c r="N11" s="1">
+        <v>97</v>
+      </c>
+      <c r="O11" s="1">
+        <v>131</v>
+      </c>
+      <c r="P11" s="1">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -1184,8 +1440,26 @@
       <c r="J12" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K12" s="1">
+        <v>35</v>
+      </c>
+      <c r="L12" s="1">
+        <v>55</v>
+      </c>
+      <c r="M12" s="1">
+        <v>22</v>
+      </c>
+      <c r="N12" s="1">
+        <v>66</v>
+      </c>
+      <c r="O12" s="1">
+        <v>81</v>
+      </c>
+      <c r="P12" s="1">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1216,8 +1490,26 @@
       <c r="J13" s="1">
         <v>9</v>
       </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K13" s="1">
+        <v>95</v>
+      </c>
+      <c r="L13" s="1">
+        <v>111</v>
+      </c>
+      <c r="M13" s="1">
+        <v>84</v>
+      </c>
+      <c r="N13" s="1">
+        <v>127</v>
+      </c>
+      <c r="O13" s="1">
+        <v>141</v>
+      </c>
+      <c r="P13" s="1">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1248,8 +1540,26 @@
       <c r="J14" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K14" s="1">
+        <v>65</v>
+      </c>
+      <c r="L14" s="1">
+        <v>45</v>
+      </c>
+      <c r="M14" s="1">
+        <v>15</v>
+      </c>
+      <c r="N14" s="1">
+        <v>95</v>
+      </c>
+      <c r="O14" s="1">
+        <v>78</v>
+      </c>
+      <c r="P14" s="1">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1280,8 +1590,26 @@
       <c r="J15" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K15" s="1">
+        <v>0</v>
+      </c>
+      <c r="L15" s="1">
+        <v>0</v>
+      </c>
+      <c r="M15" s="1">
+        <v>0</v>
+      </c>
+      <c r="N15" s="1">
+        <v>48</v>
+      </c>
+      <c r="O15" s="1">
+        <v>61</v>
+      </c>
+      <c r="P15" s="1">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1312,8 +1640,26 @@
       <c r="J16" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K16" s="1">
+        <v>0</v>
+      </c>
+      <c r="L16" s="1">
+        <v>0</v>
+      </c>
+      <c r="M16" s="1">
+        <v>0</v>
+      </c>
+      <c r="N16" s="1">
+        <v>51</v>
+      </c>
+      <c r="O16" s="1">
+        <v>49</v>
+      </c>
+      <c r="P16" s="1">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1344,8 +1690,26 @@
       <c r="J17" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K17" s="1">
+        <v>0</v>
+      </c>
+      <c r="L17" s="1">
+        <v>0</v>
+      </c>
+      <c r="M17" s="1">
+        <v>0</v>
+      </c>
+      <c r="N17" s="1">
+        <v>43</v>
+      </c>
+      <c r="O17" s="1">
+        <v>69</v>
+      </c>
+      <c r="P17" s="1">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1376,8 +1740,26 @@
       <c r="J18" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K18" s="1">
+        <v>0</v>
+      </c>
+      <c r="L18" s="1">
+        <v>0</v>
+      </c>
+      <c r="M18" s="1">
+        <v>0</v>
+      </c>
+      <c r="N18" s="1">
+        <v>37</v>
+      </c>
+      <c r="O18" s="1">
+        <v>52</v>
+      </c>
+      <c r="P18" s="1">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1408,8 +1790,26 @@
       <c r="J19" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K19" s="1">
+        <v>0</v>
+      </c>
+      <c r="L19" s="1">
+        <v>0</v>
+      </c>
+      <c r="M19" s="1">
+        <v>0</v>
+      </c>
+      <c r="N19" s="1">
+        <v>59</v>
+      </c>
+      <c r="O19" s="1">
+        <v>59</v>
+      </c>
+      <c r="P19" s="1">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1440,8 +1840,26 @@
       <c r="J20" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K20" s="1">
+        <v>0</v>
+      </c>
+      <c r="L20" s="1">
+        <v>0</v>
+      </c>
+      <c r="M20" s="1">
+        <v>0</v>
+      </c>
+      <c r="N20" s="1">
+        <v>58</v>
+      </c>
+      <c r="O20" s="1">
+        <v>62</v>
+      </c>
+      <c r="P20" s="1">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1472,8 +1890,26 @@
       <c r="J21" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K21" s="1">
+        <v>0</v>
+      </c>
+      <c r="L21" s="1">
+        <v>0</v>
+      </c>
+      <c r="M21" s="1">
+        <v>0</v>
+      </c>
+      <c r="N21" s="1">
+        <v>51</v>
+      </c>
+      <c r="O21" s="1">
+        <v>65</v>
+      </c>
+      <c r="P21" s="1">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1504,8 +1940,26 @@
       <c r="J22" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K22" s="1">
+        <v>0</v>
+      </c>
+      <c r="L22" s="1">
+        <v>0</v>
+      </c>
+      <c r="M22" s="1">
+        <v>0</v>
+      </c>
+      <c r="N22" s="1">
+        <v>44</v>
+      </c>
+      <c r="O22" s="1">
+        <v>60</v>
+      </c>
+      <c r="P22" s="1">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1536,8 +1990,26 @@
       <c r="J23" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K23" s="1">
+        <v>0</v>
+      </c>
+      <c r="L23" s="1">
+        <v>0</v>
+      </c>
+      <c r="M23" s="1">
+        <v>0</v>
+      </c>
+      <c r="N23" s="1">
+        <v>51</v>
+      </c>
+      <c r="O23" s="1">
+        <v>35</v>
+      </c>
+      <c r="P23" s="1">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1568,8 +2040,26 @@
       <c r="J24" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K24" s="1">
+        <v>0</v>
+      </c>
+      <c r="L24" s="1">
+        <v>0</v>
+      </c>
+      <c r="M24" s="1">
+        <v>0</v>
+      </c>
+      <c r="N24" s="1">
+        <v>62</v>
+      </c>
+      <c r="O24" s="1">
+        <v>55</v>
+      </c>
+      <c r="P24" s="1">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1600,8 +2090,26 @@
       <c r="J25" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K25" s="1">
+        <v>0</v>
+      </c>
+      <c r="L25" s="1">
+        <v>0</v>
+      </c>
+      <c r="M25" s="1">
+        <v>0</v>
+      </c>
+      <c r="N25" s="1">
+        <v>42</v>
+      </c>
+      <c r="O25" s="1">
+        <v>68</v>
+      </c>
+      <c r="P25" s="1">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -1632,8 +2140,26 @@
       <c r="J26" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K26" s="1">
+        <v>0</v>
+      </c>
+      <c r="L26" s="1">
+        <v>0</v>
+      </c>
+      <c r="M26" s="1">
+        <v>0</v>
+      </c>
+      <c r="N26" s="1">
+        <v>46</v>
+      </c>
+      <c r="O26" s="1">
+        <v>40</v>
+      </c>
+      <c r="P26" s="1">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>25</v>
       </c>
@@ -1664,8 +2190,26 @@
       <c r="J27" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K27" s="1">
+        <v>0</v>
+      </c>
+      <c r="L27" s="1">
+        <v>0</v>
+      </c>
+      <c r="M27" s="1">
+        <v>0</v>
+      </c>
+      <c r="N27" s="1">
+        <v>109</v>
+      </c>
+      <c r="O27" s="1">
+        <v>70</v>
+      </c>
+      <c r="P27" s="1">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>16</v>
       </c>
@@ -1674,19 +2218,19 @@
         <v>41.666666666666664</v>
       </c>
       <c r="F28" s="3">
-        <f t="shared" ref="F28:I28" si="0">AVERAGE(F3:F14)</f>
+        <f t="shared" ref="F28:I28" si="1">AVERAGE(F3:F14)</f>
         <v>41.583333333333336</v>
       </c>
       <c r="G28" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>41.583333333333336</v>
       </c>
       <c r="H28" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4.166666666666667</v>
       </c>
       <c r="I28" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4.916666666666667</v>
       </c>
       <c r="J28" s="3">
@@ -1694,7 +2238,7 @@
         <v>3.5833333333333335</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>17</v>
       </c>
@@ -1703,27 +2247,27 @@
         <v>3.4200832880164915</v>
       </c>
       <c r="F29" s="3">
-        <f t="shared" ref="F29:J29" si="1">STDEV(F3:F14)</f>
+        <f t="shared" ref="F29:J29" si="2">STDEV(F3:F14)</f>
         <v>3.3967453227875044</v>
       </c>
       <c r="G29" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3.3967453227875044</v>
       </c>
       <c r="H29" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2.208797835653566</v>
       </c>
       <c r="I29" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2.6784776318353725</v>
       </c>
       <c r="J29" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.7816403745544227</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>18</v>
       </c>
@@ -1732,18 +2276,20 @@
         <v>-0.82233215166967744</v>
       </c>
       <c r="I30" s="3">
-        <f t="shared" ref="I30:J30" si="2">CORREL(I3:I14, F3:F14)</f>
+        <f t="shared" ref="I30:J30" si="3">CORREL(I3:I14, F3:F14)</f>
         <v>-0.73358588635800692</v>
       </c>
       <c r="J30" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-0.4969738570781343</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="4">
     <mergeCell ref="E1:G1"/>
     <mergeCell ref="H1:J1"/>
+    <mergeCell ref="K1:M1"/>
+    <mergeCell ref="N1:P1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/data/data.xlsx
+++ b/data/data.xlsx
@@ -10,12 +10,12 @@
     <sheet name="Summary" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="152511" concurrentCalc="0"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="33">
   <si>
     <t xml:space="preserve">Week </t>
   </si>
@@ -96,6 +96,24 @@
   </si>
   <si>
     <t>Mead:LP</t>
+  </si>
+  <si>
+    <t>Mead's Average Word Count</t>
+  </si>
+  <si>
+    <t>Response Average Word Count</t>
+  </si>
+  <si>
+    <t xml:space="preserve">POI </t>
+  </si>
+  <si>
+    <t xml:space="preserve">MP </t>
+  </si>
+  <si>
+    <t>LP</t>
+  </si>
+  <si>
+    <t>Week</t>
   </si>
 </sst>
 </file>
@@ -122,7 +140,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -145,20 +163,66 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -843,10 +907,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T30"/>
+  <dimension ref="A1:AI30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11:L11"/>
+    <sheetView tabSelected="1" topLeftCell="P1" workbookViewId="0">
+      <selection activeCell="Y1" sqref="Y1:AE27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -860,32 +924,43 @@
     <col min="11" max="11" width="8.28515625" style="1" customWidth="1"/>
     <col min="12" max="17" width="9.140625" style="1"/>
     <col min="18" max="18" width="12" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="1"/>
+    <col min="19" max="21" width="9.140625" style="1"/>
+    <col min="25" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="E1" s="2" t="s">
+    <row r="1" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="E1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2" t="s">
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2" t="s">
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
-      <c r="N1" s="2" t="s">
+      <c r="L1" s="3"/>
+      <c r="M1" s="3"/>
+      <c r="N1" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="O1" s="2"/>
-      <c r="P1" s="2"/>
-    </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="O1" s="3"/>
+      <c r="P1" s="3"/>
+      <c r="Z1" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="AA1" s="5"/>
+      <c r="AB1" s="6"/>
+      <c r="AC1" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="AD1" s="5"/>
+      <c r="AE1" s="6"/>
+    </row>
+    <row r="2" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -943,8 +1018,38 @@
       <c r="T2" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="Y2" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="Z2" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AA2" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AB2" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AC2" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AD2" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AE2" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="AH2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="AI2" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -1008,8 +1113,44 @@
         <f t="shared" si="0"/>
         <v>2.7685848184752116E-7</v>
       </c>
-    </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="Y3" s="1">
+        <v>1</v>
+      </c>
+      <c r="Z3" s="1">
+        <v>10</v>
+      </c>
+      <c r="AA3" s="1">
+        <v>9</v>
+      </c>
+      <c r="AB3" s="1">
+        <v>9</v>
+      </c>
+      <c r="AC3" s="1">
+        <v>25</v>
+      </c>
+      <c r="AD3" s="1">
+        <v>28</v>
+      </c>
+      <c r="AE3" s="1">
+        <v>15</v>
+      </c>
+      <c r="AF3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="AG3" s="1">
+        <f>TTEST(Z3:Z14,AC3:AC14,1,1)</f>
+        <v>1.6878474485438993E-6</v>
+      </c>
+      <c r="AH3" s="1">
+        <f t="shared" ref="AH3" si="1">TTEST(AA3:AA14,AD3:AD14,1,1)</f>
+        <v>1.3939496379670186E-6</v>
+      </c>
+      <c r="AI3" s="1">
+        <f t="shared" ref="AI3" si="2">TTEST(AB3:AB14,AE3:AE14,1,1)</f>
+        <v>1.0817042530798923E-4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -1058,8 +1199,29 @@
       <c r="P4" s="1">
         <v>62</v>
       </c>
-    </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="Y4" s="1">
+        <v>2</v>
+      </c>
+      <c r="Z4" s="1">
+        <v>11</v>
+      </c>
+      <c r="AA4" s="1">
+        <v>11</v>
+      </c>
+      <c r="AB4" s="1">
+        <v>10</v>
+      </c>
+      <c r="AC4" s="1">
+        <v>30</v>
+      </c>
+      <c r="AD4" s="1">
+        <v>31</v>
+      </c>
+      <c r="AE4" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -1108,8 +1270,29 @@
       <c r="P5" s="1">
         <v>125</v>
       </c>
-    </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="Y5" s="1">
+        <v>3</v>
+      </c>
+      <c r="Z5" s="1">
+        <v>9</v>
+      </c>
+      <c r="AA5" s="1">
+        <v>10</v>
+      </c>
+      <c r="AB5" s="1">
+        <v>13</v>
+      </c>
+      <c r="AC5" s="1">
+        <v>20</v>
+      </c>
+      <c r="AD5" s="1">
+        <v>22</v>
+      </c>
+      <c r="AE5" s="1">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="6" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -1158,8 +1341,29 @@
       <c r="P6" s="1">
         <v>67</v>
       </c>
-    </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="Y6" s="1">
+        <v>4</v>
+      </c>
+      <c r="Z6" s="1">
+        <v>7</v>
+      </c>
+      <c r="AA6" s="1">
+        <v>7</v>
+      </c>
+      <c r="AB6" s="1">
+        <v>8</v>
+      </c>
+      <c r="AC6" s="1">
+        <v>20</v>
+      </c>
+      <c r="AD6" s="1">
+        <v>23</v>
+      </c>
+      <c r="AE6" s="1">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -1208,8 +1412,29 @@
       <c r="P7" s="1">
         <v>76</v>
       </c>
-    </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="Y7" s="1">
+        <v>5</v>
+      </c>
+      <c r="Z7" s="1">
+        <v>7</v>
+      </c>
+      <c r="AA7" s="1">
+        <v>9</v>
+      </c>
+      <c r="AB7" s="1">
+        <v>7</v>
+      </c>
+      <c r="AC7" s="1">
+        <v>17</v>
+      </c>
+      <c r="AD7" s="1">
+        <v>28</v>
+      </c>
+      <c r="AE7" s="1">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -1258,8 +1483,29 @@
       <c r="P8" s="1">
         <v>46</v>
       </c>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="Y8" s="1">
+        <v>6</v>
+      </c>
+      <c r="Z8" s="1">
+        <v>6</v>
+      </c>
+      <c r="AA8" s="1">
+        <v>7</v>
+      </c>
+      <c r="AB8" s="1">
+        <v>7</v>
+      </c>
+      <c r="AC8" s="1">
+        <v>16</v>
+      </c>
+      <c r="AD8" s="1">
+        <v>16</v>
+      </c>
+      <c r="AE8" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -1308,8 +1554,29 @@
       <c r="P9" s="1">
         <v>71</v>
       </c>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="Y9" s="1">
+        <v>7</v>
+      </c>
+      <c r="Z9" s="1">
+        <v>9</v>
+      </c>
+      <c r="AA9" s="1">
+        <v>7</v>
+      </c>
+      <c r="AB9" s="1">
+        <v>11</v>
+      </c>
+      <c r="AC9" s="1">
+        <v>18</v>
+      </c>
+      <c r="AD9" s="1">
+        <v>24</v>
+      </c>
+      <c r="AE9" s="1">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="10" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -1358,8 +1625,29 @@
       <c r="P10" s="1">
         <v>48</v>
       </c>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="Y10" s="1">
+        <v>8</v>
+      </c>
+      <c r="Z10" s="1">
+        <v>6</v>
+      </c>
+      <c r="AA10" s="1">
+        <v>8</v>
+      </c>
+      <c r="AB10" s="1">
+        <v>6</v>
+      </c>
+      <c r="AC10" s="1">
+        <v>21</v>
+      </c>
+      <c r="AD10" s="1">
+        <v>23</v>
+      </c>
+      <c r="AE10" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -1408,8 +1696,29 @@
       <c r="P11" s="1">
         <v>61</v>
       </c>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="Y11" s="1">
+        <v>9</v>
+      </c>
+      <c r="Z11" s="1">
+        <v>11</v>
+      </c>
+      <c r="AA11" s="1">
+        <v>10</v>
+      </c>
+      <c r="AB11" s="1">
+        <v>8</v>
+      </c>
+      <c r="AC11" s="1">
+        <v>32</v>
+      </c>
+      <c r="AD11" s="1">
+        <v>43</v>
+      </c>
+      <c r="AE11" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -1458,8 +1767,29 @@
       <c r="P12" s="1">
         <v>72</v>
       </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="Y12" s="1">
+        <v>10</v>
+      </c>
+      <c r="Z12" s="1">
+        <v>6</v>
+      </c>
+      <c r="AA12" s="1">
+        <v>7</v>
+      </c>
+      <c r="AB12" s="1">
+        <v>12</v>
+      </c>
+      <c r="AC12" s="1">
+        <v>22</v>
+      </c>
+      <c r="AD12" s="1">
+        <v>27</v>
+      </c>
+      <c r="AE12" s="1">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="13" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1508,8 +1838,29 @@
       <c r="P13" s="1">
         <v>153</v>
       </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="Y13" s="1">
+        <v>11</v>
+      </c>
+      <c r="Z13" s="1">
+        <v>11</v>
+      </c>
+      <c r="AA13" s="1">
+        <v>12</v>
+      </c>
+      <c r="AB13" s="1">
+        <v>9</v>
+      </c>
+      <c r="AC13" s="1">
+        <v>42</v>
+      </c>
+      <c r="AD13" s="1">
+        <v>47</v>
+      </c>
+      <c r="AE13" s="1">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="14" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1558,8 +1909,29 @@
       <c r="P14" s="1">
         <v>74</v>
       </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="Y14" s="1">
+        <v>12</v>
+      </c>
+      <c r="Z14" s="1">
+        <v>8</v>
+      </c>
+      <c r="AA14" s="1">
+        <v>10</v>
+      </c>
+      <c r="AB14" s="1">
+        <v>8</v>
+      </c>
+      <c r="AC14" s="1">
+        <v>31</v>
+      </c>
+      <c r="AD14" s="1">
+        <v>26</v>
+      </c>
+      <c r="AE14" s="1">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="15" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1608,8 +1980,29 @@
       <c r="P15" s="1">
         <v>62</v>
       </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="Y15" s="1">
+        <v>13</v>
+      </c>
+      <c r="Z15" s="1">
+        <v>7</v>
+      </c>
+      <c r="AA15" s="1">
+        <v>7</v>
+      </c>
+      <c r="AB15" s="1">
+        <v>6</v>
+      </c>
+      <c r="AC15" s="1">
+        <v>16</v>
+      </c>
+      <c r="AD15" s="1">
+        <v>20</v>
+      </c>
+      <c r="AE15" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="16" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1658,8 +2051,29 @@
       <c r="P16" s="1">
         <v>38</v>
       </c>
-    </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Y16" s="1">
+        <v>14</v>
+      </c>
+      <c r="Z16" s="1">
+        <v>6</v>
+      </c>
+      <c r="AA16" s="1">
+        <v>7</v>
+      </c>
+      <c r="AB16" s="1">
+        <v>6</v>
+      </c>
+      <c r="AC16" s="1">
+        <v>17</v>
+      </c>
+      <c r="AD16" s="1">
+        <v>16</v>
+      </c>
+      <c r="AE16" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="17" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1708,8 +2122,29 @@
       <c r="P17" s="1">
         <v>49</v>
       </c>
-    </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Y17" s="1">
+        <v>15</v>
+      </c>
+      <c r="Z17" s="1">
+        <v>7</v>
+      </c>
+      <c r="AA17" s="1">
+        <v>9</v>
+      </c>
+      <c r="AB17" s="1">
+        <v>6</v>
+      </c>
+      <c r="AC17" s="1">
+        <v>14</v>
+      </c>
+      <c r="AD17" s="1">
+        <v>23</v>
+      </c>
+      <c r="AE17" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1758,8 +2193,29 @@
       <c r="P18" s="1">
         <v>41</v>
       </c>
-    </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Y18" s="1">
+        <v>16</v>
+      </c>
+      <c r="Z18" s="1">
+        <v>7</v>
+      </c>
+      <c r="AA18" s="1">
+        <v>8</v>
+      </c>
+      <c r="AB18" s="1">
+        <v>4</v>
+      </c>
+      <c r="AC18" s="1">
+        <v>12</v>
+      </c>
+      <c r="AD18" s="1">
+        <v>17</v>
+      </c>
+      <c r="AE18" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="19" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1808,8 +2264,29 @@
       <c r="P19" s="1">
         <v>77</v>
       </c>
-    </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Y19" s="1">
+        <v>17</v>
+      </c>
+      <c r="Z19" s="1">
+        <v>9</v>
+      </c>
+      <c r="AA19" s="1">
+        <v>6</v>
+      </c>
+      <c r="AB19" s="1">
+        <v>8</v>
+      </c>
+      <c r="AC19" s="1">
+        <v>19</v>
+      </c>
+      <c r="AD19" s="1">
+        <v>19</v>
+      </c>
+      <c r="AE19" s="1">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="20" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1858,8 +2335,29 @@
       <c r="P20" s="1">
         <v>57</v>
       </c>
-    </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Y20" s="1">
+        <v>18</v>
+      </c>
+      <c r="Z20" s="1">
+        <v>6</v>
+      </c>
+      <c r="AA20" s="1">
+        <v>7</v>
+      </c>
+      <c r="AB20" s="1">
+        <v>6</v>
+      </c>
+      <c r="AC20" s="1">
+        <v>19</v>
+      </c>
+      <c r="AD20" s="1">
+        <v>20</v>
+      </c>
+      <c r="AE20" s="1">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1908,8 +2406,29 @@
       <c r="P21" s="1">
         <v>62</v>
       </c>
-    </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Y21" s="1">
+        <v>19</v>
+      </c>
+      <c r="Z21" s="1">
+        <v>6</v>
+      </c>
+      <c r="AA21" s="1">
+        <v>8</v>
+      </c>
+      <c r="AB21" s="1">
+        <v>6</v>
+      </c>
+      <c r="AC21" s="1">
+        <v>17</v>
+      </c>
+      <c r="AD21" s="1">
+        <v>21</v>
+      </c>
+      <c r="AE21" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1958,8 +2477,29 @@
       <c r="P22" s="1">
         <v>56</v>
       </c>
-    </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Y22" s="1">
+        <v>20</v>
+      </c>
+      <c r="Z22" s="1">
+        <v>6</v>
+      </c>
+      <c r="AA22" s="1">
+        <v>7</v>
+      </c>
+      <c r="AB22" s="1">
+        <v>6</v>
+      </c>
+      <c r="AC22" s="1">
+        <v>14</v>
+      </c>
+      <c r="AD22" s="1">
+        <v>20</v>
+      </c>
+      <c r="AE22" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="23" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -2008,8 +2548,29 @@
       <c r="P23" s="1">
         <v>92</v>
       </c>
-    </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Y23" s="1">
+        <v>21</v>
+      </c>
+      <c r="Z23" s="1">
+        <v>6</v>
+      </c>
+      <c r="AA23" s="1">
+        <v>8</v>
+      </c>
+      <c r="AB23" s="1">
+        <v>7</v>
+      </c>
+      <c r="AC23" s="1">
+        <v>17</v>
+      </c>
+      <c r="AD23" s="1">
+        <v>11</v>
+      </c>
+      <c r="AE23" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="24" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -2058,8 +2619,29 @@
       <c r="P24" s="1">
         <v>63</v>
       </c>
-    </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Y24" s="1">
+        <v>22</v>
+      </c>
+      <c r="Z24" s="1">
+        <v>6</v>
+      </c>
+      <c r="AA24" s="1">
+        <v>7</v>
+      </c>
+      <c r="AB24" s="1">
+        <v>6</v>
+      </c>
+      <c r="AC24" s="1">
+        <v>20</v>
+      </c>
+      <c r="AD24" s="1">
+        <v>18</v>
+      </c>
+      <c r="AE24" s="1">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="25" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -2108,8 +2690,29 @@
       <c r="P25" s="1">
         <v>58</v>
       </c>
-    </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Y25" s="1">
+        <v>23</v>
+      </c>
+      <c r="Z25" s="1">
+        <v>6</v>
+      </c>
+      <c r="AA25" s="1">
+        <v>6</v>
+      </c>
+      <c r="AB25" s="1">
+        <v>6</v>
+      </c>
+      <c r="AC25" s="1">
+        <v>14</v>
+      </c>
+      <c r="AD25" s="1">
+        <v>22</v>
+      </c>
+      <c r="AE25" s="1">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="26" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -2158,8 +2761,29 @@
       <c r="P26" s="1">
         <v>85</v>
       </c>
-    </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Y26" s="1">
+        <v>24</v>
+      </c>
+      <c r="Z26" s="1">
+        <v>6</v>
+      </c>
+      <c r="AA26" s="1">
+        <v>5</v>
+      </c>
+      <c r="AB26" s="1">
+        <v>6</v>
+      </c>
+      <c r="AC26" s="1">
+        <v>15</v>
+      </c>
+      <c r="AD26" s="1">
+        <v>13</v>
+      </c>
+      <c r="AE26" s="1">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="27" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>25</v>
       </c>
@@ -2208,88 +2832,111 @@
       <c r="P27" s="1">
         <v>103</v>
       </c>
-    </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Y27" s="1">
+        <v>25</v>
+      </c>
+      <c r="Z27" s="1">
+        <v>13</v>
+      </c>
+      <c r="AA27" s="1">
+        <v>9</v>
+      </c>
+      <c r="AB27" s="1">
+        <v>12</v>
+      </c>
+      <c r="AC27" s="1">
+        <v>36</v>
+      </c>
+      <c r="AD27" s="1">
+        <v>23</v>
+      </c>
+      <c r="AE27" s="1">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="28" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E28" s="3">
+      <c r="E28" s="2">
         <f>AVERAGE(E3:E14)</f>
         <v>41.666666666666664</v>
       </c>
-      <c r="F28" s="3">
-        <f t="shared" ref="F28:I28" si="1">AVERAGE(F3:F14)</f>
+      <c r="F28" s="2">
+        <f t="shared" ref="F28:I28" si="3">AVERAGE(F3:F14)</f>
         <v>41.583333333333336</v>
       </c>
-      <c r="G28" s="3">
-        <f t="shared" si="1"/>
+      <c r="G28" s="2">
+        <f t="shared" si="3"/>
         <v>41.583333333333336</v>
       </c>
-      <c r="H28" s="3">
-        <f t="shared" si="1"/>
+      <c r="H28" s="2">
+        <f t="shared" si="3"/>
         <v>4.166666666666667</v>
       </c>
-      <c r="I28" s="3">
-        <f t="shared" si="1"/>
+      <c r="I28" s="2">
+        <f t="shared" si="3"/>
         <v>4.916666666666667</v>
       </c>
-      <c r="J28" s="3">
+      <c r="J28" s="2">
         <f>AVERAGE(J3:J14)</f>
         <v>3.5833333333333335</v>
       </c>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E29" s="3">
+      <c r="E29" s="2">
         <f>STDEV(E3:E14)</f>
         <v>3.4200832880164915</v>
       </c>
-      <c r="F29" s="3">
-        <f t="shared" ref="F29:J29" si="2">STDEV(F3:F14)</f>
+      <c r="F29" s="2">
+        <f t="shared" ref="F29:J29" si="4">STDEV(F3:F14)</f>
         <v>3.3967453227875044</v>
       </c>
-      <c r="G29" s="3">
-        <f t="shared" si="2"/>
+      <c r="G29" s="2">
+        <f t="shared" si="4"/>
         <v>3.3967453227875044</v>
       </c>
-      <c r="H29" s="3">
-        <f t="shared" si="2"/>
+      <c r="H29" s="2">
+        <f t="shared" si="4"/>
         <v>2.208797835653566</v>
       </c>
-      <c r="I29" s="3">
-        <f t="shared" si="2"/>
+      <c r="I29" s="2">
+        <f t="shared" si="4"/>
         <v>2.6784776318353725</v>
       </c>
-      <c r="J29" s="3">
-        <f t="shared" si="2"/>
+      <c r="J29" s="2">
+        <f t="shared" si="4"/>
         <v>1.7816403745544227</v>
       </c>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="H30" s="3">
+      <c r="H30" s="2">
         <f>CORREL(H3:H14, E3:E14)</f>
         <v>-0.82233215166967744</v>
       </c>
-      <c r="I30" s="3">
-        <f t="shared" ref="I30:J30" si="3">CORREL(I3:I14, F3:F14)</f>
+      <c r="I30" s="2">
+        <f t="shared" ref="I30:J30" si="5">CORREL(I3:I14, F3:F14)</f>
         <v>-0.73358588635800692</v>
       </c>
-      <c r="J30" s="3">
-        <f t="shared" si="3"/>
+      <c r="J30" s="2">
+        <f t="shared" si="5"/>
         <v>-0.4969738570781343</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="6">
+    <mergeCell ref="AC1:AE1"/>
     <mergeCell ref="E1:G1"/>
     <mergeCell ref="H1:J1"/>
     <mergeCell ref="K1:M1"/>
     <mergeCell ref="N1:P1"/>
+    <mergeCell ref="Z1:AB1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/data/data.xlsx
+++ b/data/data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="1" r:id="rId1"/>
@@ -212,9 +212,6 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -222,6 +219,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -530,8 +530,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:D1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -909,18 +909,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AI30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="P1" workbookViewId="0">
+    <sheetView topLeftCell="P1" workbookViewId="0">
       <selection activeCell="Y1" sqref="Y1:AE27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.140625" style="1"/>
-    <col min="2" max="2" width="12.42578125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="11.7109375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="9.42578125" style="1" customWidth="1"/>
-    <col min="5" max="7" width="15" style="1" customWidth="1"/>
-    <col min="8" max="10" width="9.5703125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="12.42578125" style="1" hidden="1" customWidth="1"/>
+    <col min="3" max="3" width="11.7109375" style="1" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="9.42578125" style="1" hidden="1" customWidth="1"/>
+    <col min="5" max="7" width="15" style="1" hidden="1" customWidth="1"/>
+    <col min="8" max="10" width="9.5703125" style="1" hidden="1" customWidth="1"/>
     <col min="11" max="11" width="8.28515625" style="1" customWidth="1"/>
     <col min="12" max="17" width="9.140625" style="1"/>
     <col min="18" max="18" width="12" style="1" bestFit="1" customWidth="1"/>
@@ -929,36 +929,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3" t="s">
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3" t="s">
+      <c r="I1" s="6"/>
+      <c r="J1" s="6"/>
+      <c r="K1" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="L1" s="3"/>
-      <c r="M1" s="3"/>
-      <c r="N1" s="3" t="s">
+      <c r="L1" s="6"/>
+      <c r="M1" s="6"/>
+      <c r="N1" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="O1" s="3"/>
-      <c r="P1" s="3"/>
-      <c r="Z1" s="4" t="s">
+      <c r="O1" s="6"/>
+      <c r="P1" s="6"/>
+      <c r="Z1" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="AA1" s="5"/>
-      <c r="AB1" s="6"/>
-      <c r="AC1" s="4" t="s">
+      <c r="AA1" s="4"/>
+      <c r="AB1" s="5"/>
+      <c r="AC1" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="AD1" s="5"/>
-      <c r="AE1" s="6"/>
+      <c r="AD1" s="4"/>
+      <c r="AE1" s="5"/>
     </row>
     <row r="2" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -1103,21 +1103,21 @@
       </c>
       <c r="R3" s="1">
         <f>TTEST(K3:K14,N3:N14,1,1)</f>
-        <v>4.752847749225631E-7</v>
+        <v>4.6654156041070836E-2</v>
       </c>
       <c r="S3" s="1">
         <f t="shared" ref="S3:T3" si="0">TTEST(L3:L14,O3:O14,1,1)</f>
-        <v>2.1697018587636549E-7</v>
+        <v>5.7764620650166715E-2</v>
       </c>
       <c r="T3" s="1">
         <f t="shared" si="0"/>
-        <v>2.7685848184752116E-7</v>
+        <v>4.0879773203309681E-4</v>
       </c>
       <c r="Y3" s="1">
         <v>1</v>
       </c>
       <c r="Z3" s="1">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AA3" s="1">
         <v>9</v>
@@ -1139,15 +1139,15 @@
       </c>
       <c r="AG3" s="1">
         <f>TTEST(Z3:Z14,AC3:AC14,1,1)</f>
-        <v>1.6878474485438993E-6</v>
+        <v>2.6115188171020555E-6</v>
       </c>
       <c r="AH3" s="1">
         <f t="shared" ref="AH3" si="1">TTEST(AA3:AA14,AD3:AD14,1,1)</f>
-        <v>1.3939496379670186E-6</v>
+        <v>8.9041097792401618E-6</v>
       </c>
       <c r="AI3" s="1">
         <f t="shared" ref="AI3" si="2">TTEST(AB3:AB14,AE3:AE14,1,1)</f>
-        <v>1.0817042530798923E-4</v>
+        <v>1.5210142802387952E-4</v>
       </c>
     </row>
     <row r="4" spans="1:35" x14ac:dyDescent="0.25">
@@ -1191,13 +1191,13 @@
         <v>11</v>
       </c>
       <c r="N4" s="1">
-        <v>91</v>
+        <v>47</v>
       </c>
       <c r="O4" s="1">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="P4" s="1">
-        <v>62</v>
+        <v>50</v>
       </c>
       <c r="Y4" s="1">
         <v>2</v>
@@ -1212,13 +1212,13 @@
         <v>10</v>
       </c>
       <c r="AC4" s="1">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="AD4" s="1">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="AE4" s="1">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:35" x14ac:dyDescent="0.25">
@@ -1262,13 +1262,13 @@
         <v>40</v>
       </c>
       <c r="N5" s="1">
-        <v>62</v>
+        <v>48</v>
       </c>
       <c r="O5" s="1">
-        <v>68</v>
+        <v>77</v>
       </c>
       <c r="P5" s="1">
-        <v>125</v>
+        <v>37</v>
       </c>
       <c r="Y5" s="1">
         <v>3</v>
@@ -1277,19 +1277,19 @@
         <v>9</v>
       </c>
       <c r="AA5" s="1">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AB5" s="1">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AC5" s="1">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="AD5" s="1">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="AE5" s="1">
-        <v>41</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:35" x14ac:dyDescent="0.25">
@@ -1333,13 +1333,13 @@
         <v>17</v>
       </c>
       <c r="N6" s="1">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="O6" s="1">
-        <v>70</v>
+        <v>53</v>
       </c>
       <c r="P6" s="1">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="Y6" s="1">
         <v>4</v>
@@ -1354,13 +1354,13 @@
         <v>8</v>
       </c>
       <c r="AC6" s="1">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AD6" s="1">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="AE6" s="1">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:35" x14ac:dyDescent="0.25">
@@ -1404,13 +1404,13 @@
         <v>25</v>
       </c>
       <c r="N7" s="1">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="O7" s="1">
-        <v>85</v>
+        <v>71</v>
       </c>
       <c r="P7" s="1">
-        <v>76</v>
+        <v>25</v>
       </c>
       <c r="Y7" s="1">
         <v>5</v>
@@ -1419,19 +1419,19 @@
         <v>7</v>
       </c>
       <c r="AA7" s="1">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AB7" s="1">
         <v>7</v>
       </c>
       <c r="AC7" s="1">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="AD7" s="1">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="AE7" s="1">
-        <v>25</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:35" x14ac:dyDescent="0.25">
@@ -1475,13 +1475,13 @@
         <v>24</v>
       </c>
       <c r="N8" s="1">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="O8" s="1">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="P8" s="1">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Y8" s="1">
         <v>6</v>
@@ -1499,7 +1499,7 @@
         <v>16</v>
       </c>
       <c r="AD8" s="1">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="AE8" s="1">
         <v>15</v>
@@ -1546,19 +1546,19 @@
         <v>10</v>
       </c>
       <c r="N9" s="1">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="O9" s="1">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="P9" s="1">
-        <v>71</v>
+        <v>52</v>
       </c>
       <c r="Y9" s="1">
         <v>7</v>
       </c>
       <c r="Z9" s="1">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AA9" s="1">
         <v>7</v>
@@ -1567,13 +1567,13 @@
         <v>11</v>
       </c>
       <c r="AC9" s="1">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="AD9" s="1">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="AE9" s="1">
-        <v>23</v>
+        <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:35" x14ac:dyDescent="0.25">
@@ -1617,13 +1617,13 @@
         <v>15</v>
       </c>
       <c r="N10" s="1">
-        <v>65</v>
+        <v>30</v>
       </c>
       <c r="O10" s="1">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="P10" s="1">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="Y10" s="1">
         <v>8</v>
@@ -1632,19 +1632,19 @@
         <v>6</v>
       </c>
       <c r="AA10" s="1">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AB10" s="1">
         <v>6</v>
       </c>
       <c r="AC10" s="1">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="AD10" s="1">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AE10" s="1">
-        <v>16</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:35" x14ac:dyDescent="0.25">
@@ -1688,34 +1688,34 @@
         <v>13</v>
       </c>
       <c r="N11" s="1">
-        <v>97</v>
+        <v>60</v>
       </c>
       <c r="O11" s="1">
-        <v>131</v>
+        <v>71</v>
       </c>
       <c r="P11" s="1">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="Y11" s="1">
         <v>9</v>
       </c>
       <c r="Z11" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AA11" s="1">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="AB11" s="1">
         <v>8</v>
       </c>
       <c r="AC11" s="1">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="AD11" s="1">
-        <v>43</v>
+        <v>23</v>
       </c>
       <c r="AE11" s="1">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="12" spans="1:35" x14ac:dyDescent="0.25">
@@ -1759,34 +1759,34 @@
         <v>22</v>
       </c>
       <c r="N12" s="1">
-        <v>66</v>
+        <v>37</v>
       </c>
       <c r="O12" s="1">
-        <v>81</v>
+        <v>38</v>
       </c>
       <c r="P12" s="1">
-        <v>72</v>
+        <v>53</v>
       </c>
       <c r="Y12" s="1">
         <v>10</v>
       </c>
       <c r="Z12" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AA12" s="1">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AB12" s="1">
+        <v>11</v>
+      </c>
+      <c r="AC12" s="1">
         <v>12</v>
       </c>
-      <c r="AC12" s="1">
-        <v>22</v>
-      </c>
       <c r="AD12" s="1">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="AE12" s="1">
-        <v>24</v>
+        <v>17</v>
       </c>
     </row>
     <row r="13" spans="1:35" x14ac:dyDescent="0.25">
@@ -1830,34 +1830,34 @@
         <v>84</v>
       </c>
       <c r="N13" s="1">
-        <v>127</v>
+        <v>57</v>
       </c>
       <c r="O13" s="1">
-        <v>141</v>
+        <v>43</v>
       </c>
       <c r="P13" s="1">
-        <v>153</v>
+        <v>77</v>
       </c>
       <c r="Y13" s="1">
         <v>11</v>
       </c>
       <c r="Z13" s="1">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="AA13" s="1">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="AB13" s="1">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="AC13" s="1">
-        <v>42</v>
+        <v>19</v>
       </c>
       <c r="AD13" s="1">
-        <v>47</v>
+        <v>14</v>
       </c>
       <c r="AE13" s="1">
-        <v>51</v>
+        <v>25</v>
       </c>
     </row>
     <row r="14" spans="1:35" x14ac:dyDescent="0.25">
@@ -1901,19 +1901,19 @@
         <v>15</v>
       </c>
       <c r="N14" s="1">
-        <v>95</v>
+        <v>48</v>
       </c>
       <c r="O14" s="1">
-        <v>78</v>
+        <v>46</v>
       </c>
       <c r="P14" s="1">
-        <v>74</v>
+        <v>47</v>
       </c>
       <c r="Y14" s="1">
         <v>12</v>
       </c>
       <c r="Z14" s="1">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AA14" s="1">
         <v>10</v>
@@ -1922,13 +1922,13 @@
         <v>8</v>
       </c>
       <c r="AC14" s="1">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="AD14" s="1">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="AE14" s="1">
-        <v>24</v>
+        <v>15</v>
       </c>
     </row>
     <row r="15" spans="1:35" x14ac:dyDescent="0.25">

--- a/data/data.xlsx
+++ b/data/data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="2" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="1" r:id="rId1"/>
@@ -13,13 +13,14 @@
     <sheet name="TA's sort by word count" sheetId="4" r:id="rId4"/>
     <sheet name="Sheet4" sheetId="5" r:id="rId5"/>
     <sheet name="Weekly" sheetId="6" r:id="rId6"/>
+    <sheet name="Mead's summary" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2617" uniqueCount="2515">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2644" uniqueCount="2518">
   <si>
     <t xml:space="preserve">Week </t>
   </si>
@@ -7564,6 +7565,15 @@
   </si>
   <si>
     <t xml:space="preserve">LP </t>
+  </si>
+  <si>
+    <t>std</t>
+  </si>
+  <si>
+    <t>cutoff=1</t>
+  </si>
+  <si>
+    <t>cutoff=9</t>
   </si>
 </sst>
 </file>
@@ -7654,7 +7664,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -7676,6 +7686,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -8152,11 +8163,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="252755704"/>
-        <c:axId val="252758056"/>
+        <c:axId val="125357160"/>
+        <c:axId val="125354808"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="252755704"/>
+        <c:axId val="125357160"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8254,7 +8265,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="252758056"/>
+        <c:crossAx val="125354808"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -8262,7 +8273,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="252758056"/>
+        <c:axId val="125354808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8369,7 +8380,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="252755704"/>
+        <c:crossAx val="125357160"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8695,11 +8706,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="251240616"/>
-        <c:axId val="251241008"/>
+        <c:axId val="246930688"/>
+        <c:axId val="246931080"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="251240616"/>
+        <c:axId val="246930688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8797,7 +8808,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="251241008"/>
+        <c:crossAx val="246931080"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -8805,7 +8816,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="251241008"/>
+        <c:axId val="246931080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8912,7 +8923,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="251240616"/>
+        <c:crossAx val="246930688"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -12847,7 +12858,7 @@
   <dimension ref="A1:BH12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:E7"/>
+      <selection activeCell="F7" sqref="A4:F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13325,26 +13336,28 @@
       <c r="E4" s="3" t="s">
         <v>37</v>
       </c>
+      <c r="F4" s="9" t="s">
+        <v>2515</v>
+      </c>
     </row>
     <row r="5" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>13</v>
       </c>
       <c r="B5" s="3">
-        <f>MAX(B1:AY1)</f>
         <v>19</v>
       </c>
       <c r="C5" s="3">
-        <f>MIN(B2:BH2)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D5" s="4">
-        <f>AVERAGE(B1:AY1)</f>
         <v>7.36</v>
       </c>
       <c r="E5" s="3">
-        <f>MEDIAN(B1:AY1)</f>
         <v>6</v>
+      </c>
+      <c r="F5" s="4">
+        <v>4.5464711590400002</v>
       </c>
     </row>
     <row r="6" spans="1:60" x14ac:dyDescent="0.25">
@@ -13352,20 +13365,19 @@
         <v>33</v>
       </c>
       <c r="B6" s="3">
-        <f>MAX(B2:BH2)</f>
         <v>26</v>
       </c>
       <c r="C6" s="3">
-        <f>MIN(C2:BH2)</f>
         <v>2</v>
       </c>
       <c r="D6" s="4">
-        <f>AVERAGE(B2:BH2)</f>
-        <v>7.6779661016949152</v>
+        <v>7.6724137930999996</v>
       </c>
       <c r="E6" s="3">
-        <f>MEDIAN(B2:BH2)</f>
         <v>7</v>
+      </c>
+      <c r="F6" s="4">
+        <v>5.09356568771</v>
       </c>
     </row>
     <row r="7" spans="1:60" x14ac:dyDescent="0.25">
@@ -13373,20 +13385,19 @@
         <v>31</v>
       </c>
       <c r="B7" s="3">
-        <f>MAX(B3:AR3)</f>
         <v>23</v>
       </c>
       <c r="C7" s="3">
-        <f>MIN(B3:AR3)</f>
         <v>1</v>
       </c>
       <c r="D7" s="4">
-        <f>AVERAGE(B3:AR3)</f>
-        <v>5.9230769230769234</v>
+        <v>5.92307692308</v>
       </c>
       <c r="E7" s="3">
-        <f>MEDIAN(B3:AR3)</f>
         <v>5</v>
+      </c>
+      <c r="F7" s="4">
+        <v>4.7034336360199998</v>
       </c>
     </row>
     <row r="9" spans="1:60" x14ac:dyDescent="0.25">
@@ -13425,7 +13436,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:I59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
+    <sheetView topLeftCell="A30" workbookViewId="0">
       <selection activeCell="H40" sqref="H34:H40"/>
     </sheetView>
   </sheetViews>
@@ -14454,7 +14465,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N824"/>
   <sheetViews>
-    <sheetView topLeftCell="A666" workbookViewId="0">
+    <sheetView topLeftCell="A807" workbookViewId="0">
       <selection activeCell="A666" sqref="A666"/>
     </sheetView>
   </sheetViews>
@@ -30244,10 +30255,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G13"/>
+  <dimension ref="A1:G20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="G20" sqref="B17:G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -30548,8 +30559,265 @@
         <v>7.3868660116199996</v>
       </c>
     </row>
+    <row r="17" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B17" s="3"/>
+      <c r="C17" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="G17" s="9" t="s">
+        <v>2515</v>
+      </c>
+    </row>
+    <row r="18" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B18" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C18" s="3">
+        <v>44</v>
+      </c>
+      <c r="D18" s="3">
+        <v>1</v>
+      </c>
+      <c r="E18" s="4">
+        <v>8.8448275862100001</v>
+      </c>
+      <c r="F18" s="3">
+        <v>7</v>
+      </c>
+      <c r="G18" s="4">
+        <v>6.2132117571899999</v>
+      </c>
+    </row>
+    <row r="19" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B19" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C19" s="3">
+        <v>44</v>
+      </c>
+      <c r="D19" s="3">
+        <v>1</v>
+      </c>
+      <c r="E19" s="4">
+        <v>9.2655860349099992</v>
+      </c>
+      <c r="F19" s="3">
+        <v>8</v>
+      </c>
+      <c r="G19" s="4">
+        <v>6.8640548944599997</v>
+      </c>
+    </row>
+    <row r="20" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B20" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C20" s="3">
+        <v>91</v>
+      </c>
+      <c r="D20" s="3">
+        <v>1</v>
+      </c>
+      <c r="E20" s="4">
+        <v>10.2507082153</v>
+      </c>
+      <c r="F20" s="3">
+        <v>8</v>
+      </c>
+      <c r="G20" s="4">
+        <v>8.3950464827399998</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F1" sqref="F1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="16384" width="9.140625" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>2517</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="F1" s="9" t="s">
+        <v>2515</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" s="3">
+        <v>32</v>
+      </c>
+      <c r="C2" s="3">
+        <v>8</v>
+      </c>
+      <c r="D2" s="4">
+        <v>19.5</v>
+      </c>
+      <c r="E2" s="4">
+        <v>18.5</v>
+      </c>
+      <c r="F2" s="4">
+        <v>6.0115629322900004</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B3" s="3">
+        <v>44</v>
+      </c>
+      <c r="C3" s="3">
+        <v>9</v>
+      </c>
+      <c r="D3" s="4">
+        <v>20.25</v>
+      </c>
+      <c r="E3" s="4">
+        <v>18</v>
+      </c>
+      <c r="F3" s="4">
+        <v>8.3179023798100005</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B4" s="3">
+        <v>63</v>
+      </c>
+      <c r="C4" s="3">
+        <v>9</v>
+      </c>
+      <c r="D4" s="4">
+        <v>21.277777777800001</v>
+      </c>
+      <c r="E4" s="4">
+        <v>17</v>
+      </c>
+      <c r="F4" s="4">
+        <v>12.107415338199999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>2516</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="F6" s="9" t="s">
+        <v>2515</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="3">
+        <v>32</v>
+      </c>
+      <c r="C7" s="3">
+        <v>1</v>
+      </c>
+      <c r="D7" s="4">
+        <v>16.583333333300001</v>
+      </c>
+      <c r="E7" s="4">
+        <v>17.5</v>
+      </c>
+      <c r="F7" s="4">
+        <v>8.4602830265200009</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B8" s="3">
+        <v>44</v>
+      </c>
+      <c r="C8" s="3">
+        <v>2</v>
+      </c>
+      <c r="D8" s="4">
+        <v>16.611111111100001</v>
+      </c>
+      <c r="E8" s="4">
+        <v>17</v>
+      </c>
+      <c r="F8" s="4">
+        <v>9.9673850849699992</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B9" s="3">
+        <v>63</v>
+      </c>
+      <c r="C9" s="3">
+        <v>1</v>
+      </c>
+      <c r="D9" s="4">
+        <v>17.972222222199999</v>
+      </c>
+      <c r="E9" s="4">
+        <v>14</v>
+      </c>
+      <c r="F9" s="4">
+        <v>13.118024307400001</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/data/data.xlsx
+++ b/data/data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="2" activeTab="5"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="3" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="1" r:id="rId1"/>
@@ -14,13 +14,14 @@
     <sheet name="Sheet4" sheetId="5" r:id="rId5"/>
     <sheet name="Weekly" sheetId="6" r:id="rId6"/>
     <sheet name="Mead's summary" sheetId="7" r:id="rId7"/>
+    <sheet name="Sheet2" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2644" uniqueCount="2518">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2951" uniqueCount="2735">
   <si>
     <t xml:space="preserve">Week </t>
   </si>
@@ -7574,6 +7575,657 @@
   </si>
   <si>
     <t>cutoff=9</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t># of points</t>
+  </si>
+  <si>
+    <t># of response points</t>
+  </si>
+  <si>
+    <t>coverage ratio</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t># of coveraged points</t>
+  </si>
+  <si>
+    <t>group activities</t>
+  </si>
+  <si>
+    <t>they</t>
+  </si>
+  <si>
+    <t>differences</t>
+  </si>
+  <si>
+    <t>differences between</t>
+  </si>
+  <si>
+    <t>cw</t>
+  </si>
+  <si>
+    <t>examples</t>
+  </si>
+  <si>
+    <t>vs</t>
+  </si>
+  <si>
+    <t>graphs,</t>
+  </si>
+  <si>
+    <t>solution</t>
+  </si>
+  <si>
+    <t>general:</t>
+  </si>
+  <si>
+    <t>between types of</t>
+  </si>
+  <si>
+    <t>preview</t>
+  </si>
+  <si>
+    <t>and their</t>
+  </si>
+  <si>
+    <t>properties and</t>
+  </si>
+  <si>
+    <t>brittle vs</t>
+  </si>
+  <si>
+    <t>activity of</t>
+  </si>
+  <si>
+    <t>differences between types of bonding</t>
+  </si>
+  <si>
+    <t>differences between types of</t>
+  </si>
+  <si>
+    <t>reviewing</t>
+  </si>
+  <si>
+    <t>applications</t>
+  </si>
+  <si>
+    <t>real life examples</t>
+  </si>
+  <si>
+    <t>preview problem</t>
+  </si>
+  <si>
+    <t>white</t>
+  </si>
+  <si>
+    <t>(like</t>
+  </si>
+  <si>
+    <t>need more explanation</t>
+  </si>
+  <si>
+    <t>first</t>
+  </si>
+  <si>
+    <t>the class</t>
+  </si>
+  <si>
+    <t>of failures</t>
+  </si>
+  <si>
+    <t>they are</t>
+  </si>
+  <si>
+    <t>differences between types</t>
+  </si>
+  <si>
+    <t>the white</t>
+  </si>
+  <si>
+    <t>on materials</t>
+  </si>
+  <si>
+    <t>graphs and</t>
+  </si>
+  <si>
+    <t>materials properties</t>
+  </si>
+  <si>
+    <t>mean?</t>
+  </si>
+  <si>
+    <t>difusion</t>
+  </si>
+  <si>
+    <t>life examples</t>
+  </si>
+  <si>
+    <t>between types of bonding</t>
+  </si>
+  <si>
+    <t>what's</t>
+  </si>
+  <si>
+    <t>examples of</t>
+  </si>
+  <si>
+    <t>3,</t>
+  </si>
+  <si>
+    <t>if they</t>
+  </si>
+  <si>
+    <t>from</t>
+  </si>
+  <si>
+    <t>and how</t>
+  </si>
+  <si>
+    <t>materials'</t>
+  </si>
+  <si>
+    <t>(including:</t>
+  </si>
+  <si>
+    <t>between types</t>
+  </si>
+  <si>
+    <t>cw,</t>
+  </si>
+  <si>
+    <t>cw vs</t>
+  </si>
+  <si>
+    <t>on materials properties</t>
+  </si>
+  <si>
+    <t>examples and</t>
+  </si>
+  <si>
+    <t>effect of</t>
+  </si>
+  <si>
+    <t>the alloy</t>
+  </si>
+  <si>
+    <t>board,</t>
+  </si>
+  <si>
+    <t>relation to</t>
+  </si>
+  <si>
+    <t>misconception:</t>
+  </si>
+  <si>
+    <t>metal will make</t>
+  </si>
+  <si>
+    <t>class environment (like turning</t>
+  </si>
+  <si>
+    <t>stell vs</t>
+  </si>
+  <si>
+    <t>the type of</t>
+  </si>
+  <si>
+    <t>for drawing</t>
+  </si>
+  <si>
+    <t>are well</t>
+  </si>
+  <si>
+    <t>3-d edge and screw</t>
+  </si>
+  <si>
+    <t>graphs and if they have</t>
+  </si>
+  <si>
+    <t>point in the</t>
+  </si>
+  <si>
+    <t>and pictures help</t>
+  </si>
+  <si>
+    <t>hardening:</t>
+  </si>
+  <si>
+    <t>more explanation on graphs</t>
+  </si>
+  <si>
+    <t>(comet crash, engine fallsâ€¦, world</t>
+  </si>
+  <si>
+    <t>indexing (most confusing</t>
+  </si>
+  <si>
+    <t>hardening)</t>
+  </si>
+  <si>
+    <t>help specially</t>
+  </si>
+  <si>
+    <t>why they happened (mostly</t>
+  </si>
+  <si>
+    <t>will make</t>
+  </si>
+  <si>
+    <t>how plastic bags</t>
+  </si>
+  <si>
+    <t>even adding</t>
+  </si>
+  <si>
+    <t>turning to see</t>
+  </si>
+  <si>
+    <t>in class activities (spectially</t>
+  </si>
+  <si>
+    <t>happened (mostly</t>
+  </si>
+  <si>
+    <t>eutectic composition and how the</t>
+  </si>
+  <si>
+    <t>&amp; fraction total strain</t>
+  </si>
+  <si>
+    <t>vs cast iron (brooklyn bridge)</t>
+  </si>
+  <si>
+    <t>hot work, cw vs grain</t>
+  </si>
+  <si>
+    <t>types of fatigue behaivior</t>
+  </si>
+  <si>
+    <t>for next class) help</t>
+  </si>
+  <si>
+    <t>are and what does</t>
+  </si>
+  <si>
+    <t>and concept</t>
+  </si>
+  <si>
+    <t>specially</t>
+  </si>
+  <si>
+    <t>of graph %</t>
+  </si>
+  <si>
+    <t>for stress,</t>
+  </si>
+  <si>
+    <t>phase diagram graph</t>
+  </si>
+  <si>
+    <t>do they affect materials</t>
+  </si>
+  <si>
+    <t>between unit cells (bcc, fcc,</t>
+  </si>
+  <si>
+    <t>others,</t>
+  </si>
+  <si>
+    <t>(distinguishing</t>
+  </si>
+  <si>
+    <t>calculation (in test review, problem</t>
+  </si>
+  <si>
+    <t>to tucson example</t>
+  </si>
+  <si>
+    <t>(cold work: 3, solid solution</t>
+  </si>
+  <si>
+    <t>diagram (activity)</t>
+  </si>
+  <si>
+    <t>paper clips</t>
+  </si>
+  <si>
+    <t>vs ductil</t>
+  </si>
+  <si>
+    <t>bad class environment</t>
+  </si>
+  <si>
+    <t>able to read</t>
+  </si>
+  <si>
+    <t>muddiest point in the beginning</t>
+  </si>
+  <si>
+    <t>able to read the white</t>
+  </si>
+  <si>
+    <t>(composition of alloy, how it</t>
+  </si>
+  <si>
+    <t>the graphs and if</t>
+  </si>
+  <si>
+    <t>extremly</t>
+  </si>
+  <si>
+    <t>: not seeing</t>
+  </si>
+  <si>
+    <t>dislocation and grain</t>
+  </si>
+  <si>
+    <t>to a stronger</t>
+  </si>
+  <si>
+    <t>and redoing</t>
+  </si>
+  <si>
+    <t>for single phase metals and</t>
+  </si>
+  <si>
+    <t>and if</t>
+  </si>
+  <si>
+    <t>the hw</t>
+  </si>
+  <si>
+    <t>fatigue behaivior (fatigue limit)</t>
+  </si>
+  <si>
+    <t>help if: they are</t>
+  </si>
+  <si>
+    <t>to r &amp; a, unit</t>
+  </si>
+  <si>
+    <t>of phase diagram (activity)</t>
+  </si>
+  <si>
+    <t>what are toughness, stiffness &amp;</t>
+  </si>
+  <si>
+    <t>group activity of analyzing</t>
+  </si>
+  <si>
+    <t>adding a weaker</t>
+  </si>
+  <si>
+    <t>saturation and temp.</t>
+  </si>
+  <si>
+    <t>like the</t>
+  </si>
+  <si>
+    <t>by cw, cw vs</t>
+  </si>
+  <si>
+    <t>the alloy with lowest melting</t>
+  </si>
+  <si>
+    <t>explaining to others, learning from</t>
+  </si>
+  <si>
+    <t>properties calculation (in</t>
+  </si>
+  <si>
+    <t>phoenix to tucson example</t>
+  </si>
+  <si>
+    <t>the first activity)</t>
+  </si>
+  <si>
+    <t>weaker than steel and</t>
+  </si>
+  <si>
+    <t>activities (spectially the first</t>
+  </si>
+  <si>
+    <t>working in a small</t>
+  </si>
+  <si>
+    <t>activity (effect of</t>
+  </si>
+  <si>
+    <t>noises from other classes,</t>
+  </si>
+  <si>
+    <t>activity ( effect</t>
+  </si>
+  <si>
+    <t>negative</t>
+  </si>
+  <si>
+    <t>and their effect</t>
+  </si>
+  <si>
+    <t>&amp; a, unit</t>
+  </si>
+  <si>
+    <t>effect of defects</t>
+  </si>
+  <si>
+    <t>relation, 1 activity, how</t>
+  </si>
+  <si>
+    <t>fractions</t>
+  </si>
+  <si>
+    <t>how to affect materials'</t>
+  </si>
+  <si>
+    <t>graphs, why ductility reduces by</t>
+  </si>
+  <si>
+    <t>(saturation graphs, saturation</t>
+  </si>
+  <si>
+    <t>will make the alloy</t>
+  </si>
+  <si>
+    <t>frequency</t>
+  </si>
+  <si>
+    <t>' s</t>
+  </si>
+  <si>
+    <t>:</t>
+  </si>
+  <si>
+    <t>(</t>
+  </si>
+  <si>
+    <t>)</t>
+  </si>
+  <si>
+    <t>stress - strain</t>
+  </si>
+  <si>
+    <t>graphs ,</t>
+  </si>
+  <si>
+    <t>activity (</t>
+  </si>
+  <si>
+    <t>, how</t>
+  </si>
+  <si>
+    <t>stress -</t>
+  </si>
+  <si>
+    <t>: 3</t>
+  </si>
+  <si>
+    <t>materials '</t>
+  </si>
+  <si>
+    <t>general :</t>
+  </si>
+  <si>
+    <t>phase diagram (</t>
+  </si>
+  <si>
+    <t>distinguishing</t>
+  </si>
+  <si>
+    <t>misconception :</t>
+  </si>
+  <si>
+    <t>cw ,</t>
+  </si>
+  <si>
+    <t>, the</t>
+  </si>
+  <si>
+    <t>( including :</t>
+  </si>
+  <si>
+    <t>negative :</t>
+  </si>
+  <si>
+    <t>stress - strain curve</t>
+  </si>
+  <si>
+    <t>first activity</t>
+  </si>
+  <si>
+    <t>board ,</t>
+  </si>
+  <si>
+    <t>misconception</t>
+  </si>
+  <si>
+    <t>, cw</t>
+  </si>
+  <si>
+    <t>including :</t>
+  </si>
+  <si>
+    <t>the white board</t>
+  </si>
+  <si>
+    <t>what ' s</t>
+  </si>
+  <si>
+    <t>, cw vs</t>
+  </si>
+  <si>
+    <t>what '</t>
+  </si>
+  <si>
+    <t>activities (</t>
+  </si>
+  <si>
+    <t>s parts</t>
+  </si>
+  <si>
+    <t>general</t>
+  </si>
+  <si>
+    <t>activity ( effect of</t>
+  </si>
+  <si>
+    <t>pictures and</t>
+  </si>
+  <si>
+    <t>processing (</t>
+  </si>
+  <si>
+    <t>, general</t>
+  </si>
+  <si>
+    <t>activity ,</t>
+  </si>
+  <si>
+    <t>materials ' properties</t>
+  </si>
+  <si>
+    <t>activity )</t>
+  </si>
+  <si>
+    <t>( like</t>
+  </si>
+  <si>
+    <t>white board</t>
+  </si>
+  <si>
+    <t>' s parts</t>
+  </si>
+  <si>
+    <t>( including</t>
+  </si>
+  <si>
+    <t>relation</t>
+  </si>
+  <si>
+    <t>different types of failures</t>
+  </si>
+  <si>
+    <t>including</t>
+  </si>
+  <si>
+    <t>affect materials</t>
+  </si>
+  <si>
+    <t>crash</t>
+  </si>
+  <si>
+    <t>mean ?</t>
+  </si>
+  <si>
+    <t>types of failures</t>
+  </si>
+  <si>
+    <t>( effect</t>
+  </si>
+  <si>
+    <t>3 ,</t>
+  </si>
+  <si>
+    <t>, general :</t>
+  </si>
+  <si>
+    <t>( effect of</t>
+  </si>
+  <si>
+    <t>like</t>
+  </si>
+  <si>
+    <t>: 3 ,</t>
+  </si>
+  <si>
+    <t>diagram (</t>
+  </si>
+  <si>
+    <t>'</t>
+  </si>
+  <si>
+    <t>( comet</t>
+  </si>
+  <si>
+    <t>classes , etc</t>
+  </si>
+  <si>
+    <t>does Î± +</t>
+  </si>
+  <si>
+    <t>attraction /</t>
+  </si>
+  <si>
+    <t>ngrams with punctuation</t>
+  </si>
+  <si>
+    <t>ngrams without punctuation</t>
   </si>
 </sst>
 </file>
@@ -7664,7 +8316,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -7674,6 +8326,8 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -7686,7 +8340,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -7744,7 +8397,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -8163,11 +8815,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="125357160"/>
-        <c:axId val="125354808"/>
+        <c:axId val="271898568"/>
+        <c:axId val="271898960"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="125357160"/>
+        <c:axId val="271898568"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8199,7 +8851,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -8265,7 +8916,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="125354808"/>
+        <c:crossAx val="271898960"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -8273,7 +8924,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="125354808"/>
+        <c:axId val="271898960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8319,7 +8970,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -8380,7 +9030,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="125357160"/>
+        <c:crossAx val="271898568"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8469,7 +9119,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -8706,11 +9355,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="246930688"/>
-        <c:axId val="246931080"/>
+        <c:axId val="271901312"/>
+        <c:axId val="271901704"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="246930688"/>
+        <c:axId val="271901312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8742,7 +9391,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -8808,7 +9456,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="246931080"/>
+        <c:crossAx val="271901704"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -8816,7 +9464,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="246931080"/>
+        <c:axId val="271901704"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8862,7 +9510,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -8923,7 +9570,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="246930688"/>
+        <c:crossAx val="271901312"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -10839,36 +11486,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="E1" s="8" t="s">
+      <c r="E1" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="F1" s="8"/>
-      <c r="G1" s="8"/>
-      <c r="H1" s="8" t="s">
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="I1" s="8"/>
-      <c r="J1" s="8"/>
-      <c r="K1" s="8" t="s">
+      <c r="I1" s="10"/>
+      <c r="J1" s="10"/>
+      <c r="K1" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="L1" s="8"/>
-      <c r="M1" s="8"/>
-      <c r="N1" s="8" t="s">
+      <c r="L1" s="10"/>
+      <c r="M1" s="10"/>
+      <c r="N1" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="O1" s="8"/>
-      <c r="P1" s="8"/>
-      <c r="Z1" s="5" t="s">
+      <c r="O1" s="10"/>
+      <c r="P1" s="10"/>
+      <c r="Z1" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="AA1" s="6"/>
-      <c r="AB1" s="7"/>
-      <c r="AC1" s="5" t="s">
+      <c r="AA1" s="8"/>
+      <c r="AB1" s="9"/>
+      <c r="AC1" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="AD1" s="6"/>
-      <c r="AE1" s="7"/>
+      <c r="AD1" s="8"/>
+      <c r="AE1" s="9"/>
     </row>
     <row r="2" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -13336,7 +13983,7 @@
       <c r="E4" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="F4" s="9" t="s">
+      <c r="F4" s="5" t="s">
         <v>2515</v>
       </c>
     </row>
@@ -30257,8 +30904,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="G20" sqref="B17:G20"/>
+    <sheetView topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -30573,7 +31220,7 @@
       <c r="F17" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="G17" s="9" t="s">
+      <c r="G17" s="5" t="s">
         <v>2515</v>
       </c>
     </row>
@@ -30672,7 +31319,7 @@
       <c r="E1" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="F1" s="9" t="s">
+      <c r="F1" s="5" t="s">
         <v>2515</v>
       </c>
     </row>
@@ -30752,7 +31399,7 @@
       <c r="E6" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="F6" s="9" t="s">
+      <c r="F6" s="5" t="s">
         <v>2515</v>
       </c>
     </row>
@@ -30814,6 +31461,2429 @@
       </c>
       <c r="F9" s="4">
         <v>13.118024307400001</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K152"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A105" workbookViewId="0">
+      <selection activeCell="H6" sqref="H6:K119"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.140625" style="3"/>
+    <col min="2" max="2" width="10.7109375" style="3" customWidth="1"/>
+    <col min="3" max="3" width="19.140625" style="3" customWidth="1"/>
+    <col min="4" max="4" width="19" style="3" customWidth="1"/>
+    <col min="5" max="5" width="16.140625" style="3" customWidth="1"/>
+    <col min="6" max="7" width="9.140625" style="3"/>
+    <col min="8" max="8" width="24.85546875" style="3" customWidth="1"/>
+    <col min="9" max="9" width="16.28515625" style="3" customWidth="1"/>
+    <col min="10" max="10" width="24.42578125" style="3" customWidth="1"/>
+    <col min="11" max="16384" width="9.140625" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>2518</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>2519</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>2520</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>2521</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B2" s="3">
+        <v>50</v>
+      </c>
+      <c r="C2" s="3">
+        <v>9</v>
+      </c>
+      <c r="D2" s="6">
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B3" s="3">
+        <v>59</v>
+      </c>
+      <c r="C3" s="3">
+        <v>11</v>
+      </c>
+      <c r="D3" s="6">
+        <v>0.186440677966</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>2514</v>
+      </c>
+      <c r="B4" s="3">
+        <v>43</v>
+      </c>
+      <c r="C4" s="3">
+        <v>6</v>
+      </c>
+      <c r="D4" s="6">
+        <v>0.13953488372100001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="H6" s="3" t="s">
+        <v>2733</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>2670</v>
+      </c>
+      <c r="J6" s="3" t="s">
+        <v>2734</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>2518</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>2522</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>2519</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>2523</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>2521</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>2524</v>
+      </c>
+      <c r="I7" s="3">
+        <v>5</v>
+      </c>
+      <c r="J7" s="3" t="s">
+        <v>2671</v>
+      </c>
+      <c r="K7" s="3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B8" s="3">
+        <v>1</v>
+      </c>
+      <c r="C8" s="3">
+        <v>368</v>
+      </c>
+      <c r="D8" s="3">
+        <v>293</v>
+      </c>
+      <c r="E8" s="6">
+        <v>0.79619565217400001</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>2525</v>
+      </c>
+      <c r="I8" s="3">
+        <v>3</v>
+      </c>
+      <c r="J8" s="3" t="s">
+        <v>2672</v>
+      </c>
+      <c r="K8" s="3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B9" s="3">
+        <v>2</v>
+      </c>
+      <c r="C9" s="3">
+        <v>318</v>
+      </c>
+      <c r="D9" s="3">
+        <v>133</v>
+      </c>
+      <c r="E9" s="6">
+        <v>0.41823899371099998</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>2526</v>
+      </c>
+      <c r="I9" s="3">
+        <v>3</v>
+      </c>
+      <c r="J9" s="3" t="s">
+        <v>2673</v>
+      </c>
+      <c r="K9" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B10" s="3">
+        <v>3</v>
+      </c>
+      <c r="C10" s="3">
+        <v>269</v>
+      </c>
+      <c r="D10" s="3">
+        <v>73</v>
+      </c>
+      <c r="E10" s="6">
+        <v>0.27137546468399998</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>2527</v>
+      </c>
+      <c r="I10" s="3">
+        <v>3</v>
+      </c>
+      <c r="J10" s="3" t="s">
+        <v>2674</v>
+      </c>
+      <c r="K10" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B11" s="3">
+        <v>4</v>
+      </c>
+      <c r="C11" s="3">
+        <v>225</v>
+      </c>
+      <c r="D11" s="3">
+        <v>47</v>
+      </c>
+      <c r="E11" s="6">
+        <v>0.20888888888900001</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>2528</v>
+      </c>
+      <c r="I11" s="3">
+        <v>3</v>
+      </c>
+      <c r="J11" s="3" t="s">
+        <v>2528</v>
+      </c>
+      <c r="K11" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B12" s="3">
+        <v>5</v>
+      </c>
+      <c r="C12" s="3">
+        <v>187</v>
+      </c>
+      <c r="D12" s="3">
+        <v>35</v>
+      </c>
+      <c r="E12" s="6">
+        <v>0.18716577540099999</v>
+      </c>
+      <c r="H12" s="3" t="s">
+        <v>2529</v>
+      </c>
+      <c r="I12" s="3">
+        <v>3</v>
+      </c>
+      <c r="J12" s="3" t="s">
+        <v>2524</v>
+      </c>
+      <c r="K12" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B13" s="3">
+        <v>1</v>
+      </c>
+      <c r="C13" s="3">
+        <v>450</v>
+      </c>
+      <c r="D13" s="3">
+        <v>358</v>
+      </c>
+      <c r="E13" s="6">
+        <v>0.79555555555599999</v>
+      </c>
+      <c r="H13" s="3" t="s">
+        <v>2530</v>
+      </c>
+      <c r="I13" s="3">
+        <v>3</v>
+      </c>
+      <c r="J13" s="3" t="s">
+        <v>2525</v>
+      </c>
+      <c r="K13" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B14" s="3">
+        <v>2</v>
+      </c>
+      <c r="C14" s="3">
+        <v>391</v>
+      </c>
+      <c r="D14" s="3">
+        <v>166</v>
+      </c>
+      <c r="E14" s="6">
+        <v>0.424552429668</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>2531</v>
+      </c>
+      <c r="I14" s="3">
+        <v>3</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>2526</v>
+      </c>
+      <c r="K14" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B15" s="3">
+        <v>3</v>
+      </c>
+      <c r="C15" s="3">
+        <v>332</v>
+      </c>
+      <c r="D15" s="3">
+        <v>80</v>
+      </c>
+      <c r="E15" s="6">
+        <v>0.240963855422</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>2532</v>
+      </c>
+      <c r="I15" s="3">
+        <v>2</v>
+      </c>
+      <c r="J15" s="3" t="s">
+        <v>2527</v>
+      </c>
+      <c r="K15" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B16" s="3">
+        <v>4</v>
+      </c>
+      <c r="C16" s="3">
+        <v>280</v>
+      </c>
+      <c r="D16" s="3">
+        <v>44</v>
+      </c>
+      <c r="E16" s="6">
+        <v>0.157142857143</v>
+      </c>
+      <c r="H16" s="3" t="s">
+        <v>2533</v>
+      </c>
+      <c r="I16" s="3">
+        <v>2</v>
+      </c>
+      <c r="J16" s="3" t="s">
+        <v>2675</v>
+      </c>
+      <c r="K16" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A17" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B17" s="3">
+        <v>5</v>
+      </c>
+      <c r="C17" s="3">
+        <v>235</v>
+      </c>
+      <c r="D17" s="3">
+        <v>27</v>
+      </c>
+      <c r="E17" s="6">
+        <v>0.114893617021</v>
+      </c>
+      <c r="H17" s="3" t="s">
+        <v>2534</v>
+      </c>
+      <c r="I17" s="3">
+        <v>2</v>
+      </c>
+      <c r="J17" s="3" t="s">
+        <v>2676</v>
+      </c>
+      <c r="K17" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A18" s="3" t="s">
+        <v>2514</v>
+      </c>
+      <c r="B18" s="3">
+        <v>1</v>
+      </c>
+      <c r="C18" s="3">
+        <v>239</v>
+      </c>
+      <c r="D18" s="3">
+        <v>168</v>
+      </c>
+      <c r="E18" s="6">
+        <v>0.702928870293</v>
+      </c>
+      <c r="H18" s="3" t="s">
+        <v>2535</v>
+      </c>
+      <c r="I18" s="3">
+        <v>2</v>
+      </c>
+      <c r="J18" s="3" t="e">
+        <f>- strain</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="K18" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A19" s="3" t="s">
+        <v>2514</v>
+      </c>
+      <c r="B19" s="3">
+        <v>2</v>
+      </c>
+      <c r="C19" s="3">
+        <v>196</v>
+      </c>
+      <c r="D19" s="3">
+        <v>36</v>
+      </c>
+      <c r="E19" s="6">
+        <v>0.183673469388</v>
+      </c>
+      <c r="H19" s="3" t="s">
+        <v>2536</v>
+      </c>
+      <c r="I19" s="3">
+        <v>2</v>
+      </c>
+      <c r="J19" s="3" t="s">
+        <v>2677</v>
+      </c>
+      <c r="K19" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A20" s="3" t="s">
+        <v>2514</v>
+      </c>
+      <c r="B20" s="3">
+        <v>3</v>
+      </c>
+      <c r="C20" s="3">
+        <v>157</v>
+      </c>
+      <c r="D20" s="3">
+        <v>4</v>
+      </c>
+      <c r="E20" s="6">
+        <v>2.5477707006400001E-2</v>
+      </c>
+      <c r="H20" s="3" t="s">
+        <v>2537</v>
+      </c>
+      <c r="I20" s="3">
+        <v>2</v>
+      </c>
+      <c r="J20" s="3" t="s">
+        <v>2678</v>
+      </c>
+      <c r="K20" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A21" s="3" t="s">
+        <v>2514</v>
+      </c>
+      <c r="B21" s="3">
+        <v>4</v>
+      </c>
+      <c r="C21" s="3">
+        <v>126</v>
+      </c>
+      <c r="D21" s="3">
+        <v>0</v>
+      </c>
+      <c r="E21" s="6">
+        <v>0</v>
+      </c>
+      <c r="H21" s="3" t="s">
+        <v>2538</v>
+      </c>
+      <c r="I21" s="3">
+        <v>2</v>
+      </c>
+      <c r="J21" s="3" t="s">
+        <v>2679</v>
+      </c>
+      <c r="K21" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A22" s="3" t="s">
+        <v>2514</v>
+      </c>
+      <c r="B22" s="3">
+        <v>5</v>
+      </c>
+      <c r="C22" s="3">
+        <v>101</v>
+      </c>
+      <c r="D22" s="3">
+        <v>0</v>
+      </c>
+      <c r="E22" s="6">
+        <v>0</v>
+      </c>
+      <c r="H22" s="3" t="s">
+        <v>2539</v>
+      </c>
+      <c r="I22" s="3">
+        <v>2</v>
+      </c>
+      <c r="J22" s="3" t="s">
+        <v>2529</v>
+      </c>
+      <c r="K22" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="H23" s="3" t="s">
+        <v>2540</v>
+      </c>
+      <c r="I23" s="3">
+        <v>2</v>
+      </c>
+      <c r="J23" s="3" t="s">
+        <v>2680</v>
+      </c>
+      <c r="K23" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A24" s="3" t="s">
+        <v>2518</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>2522</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>2519</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>2520</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>2521</v>
+      </c>
+      <c r="H24" s="3" t="s">
+        <v>2541</v>
+      </c>
+      <c r="I24" s="3">
+        <v>2</v>
+      </c>
+      <c r="J24" s="3" t="s">
+        <v>2555</v>
+      </c>
+      <c r="K24" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A25" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B25" s="3">
+        <v>1</v>
+      </c>
+      <c r="C25" s="3">
+        <v>426</v>
+      </c>
+      <c r="D25" s="3">
+        <v>364</v>
+      </c>
+      <c r="E25" s="6">
+        <v>0.85446009389699995</v>
+      </c>
+      <c r="H25" s="3" t="s">
+        <v>2542</v>
+      </c>
+      <c r="I25" s="3">
+        <v>2</v>
+      </c>
+      <c r="J25" s="3" t="s">
+        <v>2575</v>
+      </c>
+      <c r="K25" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A26" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B26" s="3">
+        <v>2</v>
+      </c>
+      <c r="C26" s="3">
+        <v>376</v>
+      </c>
+      <c r="D26" s="3">
+        <v>148</v>
+      </c>
+      <c r="E26" s="6">
+        <v>0.39361702127699999</v>
+      </c>
+      <c r="H26" s="3" t="s">
+        <v>2543</v>
+      </c>
+      <c r="I26" s="3">
+        <v>2</v>
+      </c>
+      <c r="J26" s="3" t="s">
+        <v>2681</v>
+      </c>
+      <c r="K26" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A27" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B27" s="3">
+        <v>3</v>
+      </c>
+      <c r="C27" s="3">
+        <v>327</v>
+      </c>
+      <c r="D27" s="3">
+        <v>77</v>
+      </c>
+      <c r="E27" s="6">
+        <v>0.235474006116</v>
+      </c>
+      <c r="H27" s="3" t="s">
+        <v>2544</v>
+      </c>
+      <c r="I27" s="3">
+        <v>2</v>
+      </c>
+      <c r="J27" s="3" t="s">
+        <v>2530</v>
+      </c>
+      <c r="K27" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A28" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B28" s="3">
+        <v>4</v>
+      </c>
+      <c r="C28" s="3">
+        <v>282</v>
+      </c>
+      <c r="D28" s="3">
+        <v>48</v>
+      </c>
+      <c r="E28" s="6">
+        <v>0.170212765957</v>
+      </c>
+      <c r="H28" s="3" t="s">
+        <v>2545</v>
+      </c>
+      <c r="I28" s="3">
+        <v>2</v>
+      </c>
+      <c r="J28" s="3" t="s">
+        <v>2682</v>
+      </c>
+      <c r="K28" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A29" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B29" s="3">
+        <v>5</v>
+      </c>
+      <c r="C29" s="3">
+        <v>241</v>
+      </c>
+      <c r="D29" s="3">
+        <v>36</v>
+      </c>
+      <c r="E29" s="6">
+        <v>0.14937759336100001</v>
+      </c>
+      <c r="H29" s="3" t="s">
+        <v>2546</v>
+      </c>
+      <c r="I29" s="3">
+        <v>2</v>
+      </c>
+      <c r="J29" s="3" t="s">
+        <v>2532</v>
+      </c>
+      <c r="K29" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A30" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B30" s="3">
+        <v>1</v>
+      </c>
+      <c r="C30" s="3">
+        <v>529</v>
+      </c>
+      <c r="D30" s="3">
+        <v>466</v>
+      </c>
+      <c r="E30" s="6">
+        <v>0.88090737240100003</v>
+      </c>
+      <c r="H30" s="3" t="s">
+        <v>2547</v>
+      </c>
+      <c r="I30" s="3">
+        <v>2</v>
+      </c>
+      <c r="J30" s="3" t="s">
+        <v>2534</v>
+      </c>
+      <c r="K30" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A31" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B31" s="3">
+        <v>2</v>
+      </c>
+      <c r="C31" s="3">
+        <v>470</v>
+      </c>
+      <c r="D31" s="3">
+        <v>189</v>
+      </c>
+      <c r="E31" s="6">
+        <v>0.40212765957399998</v>
+      </c>
+      <c r="H31" s="3" t="s">
+        <v>2548</v>
+      </c>
+      <c r="I31" s="3">
+        <v>2</v>
+      </c>
+      <c r="J31" s="3" t="s">
+        <v>2659</v>
+      </c>
+      <c r="K31" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A32" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B32" s="3">
+        <v>3</v>
+      </c>
+      <c r="C32" s="3">
+        <v>411</v>
+      </c>
+      <c r="D32" s="3">
+        <v>84</v>
+      </c>
+      <c r="E32" s="6">
+        <v>0.20437956204400001</v>
+      </c>
+      <c r="H32" s="3" t="s">
+        <v>2549</v>
+      </c>
+      <c r="I32" s="3">
+        <v>2</v>
+      </c>
+      <c r="J32" s="3" t="s">
+        <v>2660</v>
+      </c>
+      <c r="K32" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A33" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B33" s="3">
+        <v>4</v>
+      </c>
+      <c r="C33" s="3">
+        <v>358</v>
+      </c>
+      <c r="D33" s="3">
+        <v>47</v>
+      </c>
+      <c r="E33" s="6">
+        <v>0.131284916201</v>
+      </c>
+      <c r="H33" s="3" t="s">
+        <v>2550</v>
+      </c>
+      <c r="I33" s="3">
+        <v>2</v>
+      </c>
+      <c r="J33" s="3" t="s">
+        <v>2535</v>
+      </c>
+      <c r="K33" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A34" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B34" s="3">
+        <v>5</v>
+      </c>
+      <c r="C34" s="3">
+        <v>311</v>
+      </c>
+      <c r="D34" s="3">
+        <v>29</v>
+      </c>
+      <c r="E34" s="6">
+        <v>9.3247588424399994E-2</v>
+      </c>
+      <c r="H34" s="3" t="s">
+        <v>2551</v>
+      </c>
+      <c r="I34" s="3">
+        <v>2</v>
+      </c>
+      <c r="J34" s="3" t="s">
+        <v>2683</v>
+      </c>
+      <c r="K34" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A35" s="3" t="s">
+        <v>2514</v>
+      </c>
+      <c r="B35" s="3">
+        <v>1</v>
+      </c>
+      <c r="C35" s="3">
+        <v>269</v>
+      </c>
+      <c r="D35" s="3">
+        <v>208</v>
+      </c>
+      <c r="E35" s="6">
+        <v>0.77323420074299998</v>
+      </c>
+      <c r="H35" s="3" t="s">
+        <v>2552</v>
+      </c>
+      <c r="I35" s="3">
+        <v>2</v>
+      </c>
+      <c r="J35" s="3" t="s">
+        <v>2542</v>
+      </c>
+      <c r="K35" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A36" s="3" t="s">
+        <v>2514</v>
+      </c>
+      <c r="B36" s="3">
+        <v>2</v>
+      </c>
+      <c r="C36" s="3">
+        <v>226</v>
+      </c>
+      <c r="D36" s="3">
+        <v>38</v>
+      </c>
+      <c r="E36" s="6">
+        <v>0.16814159292</v>
+      </c>
+      <c r="H36" s="3" t="s">
+        <v>2553</v>
+      </c>
+      <c r="I36" s="3">
+        <v>2</v>
+      </c>
+      <c r="J36" s="3" t="s">
+        <v>2684</v>
+      </c>
+      <c r="K36" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A37" s="3" t="s">
+        <v>2514</v>
+      </c>
+      <c r="B37" s="3">
+        <v>3</v>
+      </c>
+      <c r="C37" s="3">
+        <v>186</v>
+      </c>
+      <c r="D37" s="3">
+        <v>4</v>
+      </c>
+      <c r="E37" s="6">
+        <v>2.1505376344100002E-2</v>
+      </c>
+      <c r="H37" s="3" t="s">
+        <v>2554</v>
+      </c>
+      <c r="I37" s="3">
+        <v>2</v>
+      </c>
+      <c r="J37" s="3" t="s">
+        <v>2685</v>
+      </c>
+      <c r="K37" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A38" s="3" t="s">
+        <v>2514</v>
+      </c>
+      <c r="B38" s="3">
+        <v>4</v>
+      </c>
+      <c r="C38" s="3">
+        <v>153</v>
+      </c>
+      <c r="D38" s="3">
+        <v>0</v>
+      </c>
+      <c r="E38" s="6">
+        <v>0</v>
+      </c>
+      <c r="H38" s="3" t="s">
+        <v>2555</v>
+      </c>
+      <c r="I38" s="3">
+        <v>2</v>
+      </c>
+      <c r="J38" s="3" t="s">
+        <v>2686</v>
+      </c>
+      <c r="K38" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A39" s="3" t="s">
+        <v>2514</v>
+      </c>
+      <c r="B39" s="3">
+        <v>5</v>
+      </c>
+      <c r="C39" s="3">
+        <v>127</v>
+      </c>
+      <c r="D39" s="3">
+        <v>0</v>
+      </c>
+      <c r="E39" s="6">
+        <v>0</v>
+      </c>
+      <c r="H39" s="3" t="s">
+        <v>2556</v>
+      </c>
+      <c r="I39" s="3">
+        <v>2</v>
+      </c>
+      <c r="J39" s="3" t="s">
+        <v>2536</v>
+      </c>
+      <c r="K39" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="H40" s="3" t="s">
+        <v>2557</v>
+      </c>
+      <c r="I40" s="3">
+        <v>2</v>
+      </c>
+      <c r="J40" s="3" t="s">
+        <v>2687</v>
+      </c>
+      <c r="K40" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="H41" s="3" t="s">
+        <v>2558</v>
+      </c>
+      <c r="I41" s="3">
+        <v>2</v>
+      </c>
+      <c r="J41" s="3" t="s">
+        <v>2688</v>
+      </c>
+      <c r="K41" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="H42" s="3" t="s">
+        <v>2559</v>
+      </c>
+      <c r="I42" s="3">
+        <v>2</v>
+      </c>
+      <c r="J42" s="3" t="s">
+        <v>2689</v>
+      </c>
+      <c r="K42" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="H43" s="3" t="s">
+        <v>2560</v>
+      </c>
+      <c r="I43" s="3">
+        <v>2</v>
+      </c>
+      <c r="J43" s="3" t="s">
+        <v>2538</v>
+      </c>
+      <c r="K43" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="H44" s="3" t="s">
+        <v>2561</v>
+      </c>
+      <c r="I44" s="3">
+        <v>2</v>
+      </c>
+      <c r="J44" s="3" t="s">
+        <v>2690</v>
+      </c>
+      <c r="K44" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="H45" s="3" t="s">
+        <v>2562</v>
+      </c>
+      <c r="I45" s="3">
+        <v>2</v>
+      </c>
+      <c r="J45" s="3" t="s">
+        <v>2539</v>
+      </c>
+      <c r="K45" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="H46" s="3" t="s">
+        <v>2563</v>
+      </c>
+      <c r="I46" s="3">
+        <v>2</v>
+      </c>
+      <c r="J46" s="3" t="s">
+        <v>2540</v>
+      </c>
+      <c r="K46" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="H47" s="3" t="s">
+        <v>2564</v>
+      </c>
+      <c r="I47" s="3">
+        <v>2</v>
+      </c>
+      <c r="J47" s="3" t="s">
+        <v>2691</v>
+      </c>
+      <c r="K47" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="H48" s="3" t="s">
+        <v>2565</v>
+      </c>
+      <c r="I48" s="3">
+        <v>2</v>
+      </c>
+      <c r="J48" s="3" t="s">
+        <v>2692</v>
+      </c>
+      <c r="K48" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="49" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H49" s="3" t="s">
+        <v>2566</v>
+      </c>
+      <c r="I49" s="3">
+        <v>2</v>
+      </c>
+      <c r="J49" s="3" t="s">
+        <v>2541</v>
+      </c>
+      <c r="K49" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="50" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H50" s="3" t="s">
+        <v>2567</v>
+      </c>
+      <c r="I50" s="3">
+        <v>2</v>
+      </c>
+      <c r="J50" s="3" t="s">
+        <v>2693</v>
+      </c>
+      <c r="K50" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="51" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H51" s="3" t="s">
+        <v>2568</v>
+      </c>
+      <c r="I51" s="3">
+        <v>2</v>
+      </c>
+      <c r="J51" s="3" t="s">
+        <v>2543</v>
+      </c>
+      <c r="K51" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="52" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H52" s="3" t="s">
+        <v>2569</v>
+      </c>
+      <c r="I52" s="3">
+        <v>2</v>
+      </c>
+      <c r="J52" s="3" t="s">
+        <v>2694</v>
+      </c>
+      <c r="K52" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="53" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H53" s="3" t="s">
+        <v>2570</v>
+      </c>
+      <c r="I53" s="3">
+        <v>2</v>
+      </c>
+      <c r="J53" s="3" t="s">
+        <v>2695</v>
+      </c>
+      <c r="K53" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="54" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H54" s="3" t="s">
+        <v>2571</v>
+      </c>
+      <c r="I54" s="3">
+        <v>2</v>
+      </c>
+      <c r="J54" s="3" t="s">
+        <v>2549</v>
+      </c>
+      <c r="K54" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="55" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H55" s="3" t="s">
+        <v>2572</v>
+      </c>
+      <c r="I55" s="3">
+        <v>2</v>
+      </c>
+      <c r="J55" s="3" t="s">
+        <v>2545</v>
+      </c>
+      <c r="K55" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="56" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H56" s="3" t="s">
+        <v>2573</v>
+      </c>
+      <c r="I56" s="3">
+        <v>2</v>
+      </c>
+      <c r="J56" s="3" t="s">
+        <v>2546</v>
+      </c>
+      <c r="K56" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="57" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H57" s="3" t="s">
+        <v>2574</v>
+      </c>
+      <c r="I57" s="3">
+        <v>2</v>
+      </c>
+      <c r="J57" s="3" t="s">
+        <v>2572</v>
+      </c>
+      <c r="K57" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="58" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H58" s="3" t="s">
+        <v>2575</v>
+      </c>
+      <c r="I58" s="3">
+        <v>2</v>
+      </c>
+      <c r="J58" s="3" t="s">
+        <v>2696</v>
+      </c>
+      <c r="K58" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="59" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H59" s="3" t="s">
+        <v>2576</v>
+      </c>
+      <c r="I59" s="3">
+        <v>2</v>
+      </c>
+      <c r="J59" s="3" t="s">
+        <v>2548</v>
+      </c>
+      <c r="K59" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="60" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H60" s="3" t="s">
+        <v>2577</v>
+      </c>
+      <c r="I60" s="3">
+        <v>2</v>
+      </c>
+      <c r="J60" s="3" t="s">
+        <v>2551</v>
+      </c>
+      <c r="K60" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="61" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H61" s="3" t="s">
+        <v>2578</v>
+      </c>
+      <c r="I61" s="3">
+        <v>2</v>
+      </c>
+      <c r="J61" s="3" t="s">
+        <v>2552</v>
+      </c>
+      <c r="K61" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="62" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H62" s="3" t="s">
+        <v>2579</v>
+      </c>
+      <c r="I62" s="3">
+        <v>2</v>
+      </c>
+      <c r="J62" s="3" t="s">
+        <v>2553</v>
+      </c>
+      <c r="K62" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="63" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H63" s="3" t="s">
+        <v>2580</v>
+      </c>
+      <c r="I63" s="3">
+        <v>1</v>
+      </c>
+      <c r="J63" s="3" t="s">
+        <v>2554</v>
+      </c>
+      <c r="K63" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="64" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H64" s="3" t="s">
+        <v>2581</v>
+      </c>
+      <c r="I64" s="3">
+        <v>1</v>
+      </c>
+      <c r="J64" s="3" t="s">
+        <v>2697</v>
+      </c>
+      <c r="K64" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="65" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H65" s="3" t="s">
+        <v>2582</v>
+      </c>
+      <c r="I65" s="3">
+        <v>1</v>
+      </c>
+      <c r="J65" s="3" t="s">
+        <v>2698</v>
+      </c>
+      <c r="K65" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="66" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H66" s="3" t="s">
+        <v>2583</v>
+      </c>
+      <c r="I66" s="3">
+        <v>1</v>
+      </c>
+      <c r="J66" s="3" t="s">
+        <v>2699</v>
+      </c>
+      <c r="K66" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="67" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H67" s="3" t="s">
+        <v>2584</v>
+      </c>
+      <c r="I67" s="3">
+        <v>1</v>
+      </c>
+      <c r="J67" s="3" t="s">
+        <v>2700</v>
+      </c>
+      <c r="K67" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="68" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H68" s="3" t="s">
+        <v>2585</v>
+      </c>
+      <c r="I68" s="3">
+        <v>1</v>
+      </c>
+      <c r="J68" s="3" t="s">
+        <v>2701</v>
+      </c>
+      <c r="K68" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="69" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H69" s="3" t="s">
+        <v>2586</v>
+      </c>
+      <c r="I69" s="3">
+        <v>1</v>
+      </c>
+      <c r="J69" s="3" t="s">
+        <v>2702</v>
+      </c>
+      <c r="K69" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="70" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H70" s="3" t="s">
+        <v>2587</v>
+      </c>
+      <c r="I70" s="3">
+        <v>1</v>
+      </c>
+      <c r="J70" s="3" t="s">
+        <v>2556</v>
+      </c>
+      <c r="K70" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="71" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H71" s="3" t="s">
+        <v>2588</v>
+      </c>
+      <c r="I71" s="3">
+        <v>1</v>
+      </c>
+      <c r="J71" s="3" t="s">
+        <v>2703</v>
+      </c>
+      <c r="K71" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="72" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H72" s="3" t="s">
+        <v>2589</v>
+      </c>
+      <c r="I72" s="3">
+        <v>1</v>
+      </c>
+      <c r="J72" s="3" t="s">
+        <v>2557</v>
+      </c>
+      <c r="K72" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="73" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H73" s="3" t="s">
+        <v>2590</v>
+      </c>
+      <c r="I73" s="3">
+        <v>1</v>
+      </c>
+      <c r="J73" s="3" t="s">
+        <v>2544</v>
+      </c>
+      <c r="K73" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="74" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H74" s="3" t="s">
+        <v>2591</v>
+      </c>
+      <c r="I74" s="3">
+        <v>1</v>
+      </c>
+      <c r="J74" s="3" t="s">
+        <v>2704</v>
+      </c>
+      <c r="K74" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="75" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H75" s="3" t="s">
+        <v>2592</v>
+      </c>
+      <c r="I75" s="3">
+        <v>1</v>
+      </c>
+      <c r="J75" s="3" t="s">
+        <v>2559</v>
+      </c>
+      <c r="K75" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="76" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H76" s="3" t="s">
+        <v>2593</v>
+      </c>
+      <c r="I76" s="3">
+        <v>1</v>
+      </c>
+      <c r="J76" s="3" t="s">
+        <v>2705</v>
+      </c>
+      <c r="K76" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="77" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H77" s="3" t="s">
+        <v>2594</v>
+      </c>
+      <c r="I77" s="3">
+        <v>1</v>
+      </c>
+      <c r="J77" s="3" t="s">
+        <v>2706</v>
+      </c>
+      <c r="K77" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="78" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H78" s="3" t="s">
+        <v>2595</v>
+      </c>
+      <c r="I78" s="3">
+        <v>1</v>
+      </c>
+      <c r="J78" s="3" t="s">
+        <v>2707</v>
+      </c>
+      <c r="K78" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="79" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H79" s="3" t="s">
+        <v>2596</v>
+      </c>
+      <c r="I79" s="3">
+        <v>1</v>
+      </c>
+      <c r="J79" s="3" t="s">
+        <v>2708</v>
+      </c>
+      <c r="K79" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="80" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H80" s="3" t="s">
+        <v>2597</v>
+      </c>
+      <c r="I80" s="3">
+        <v>1</v>
+      </c>
+      <c r="J80" s="3" t="s">
+        <v>2709</v>
+      </c>
+      <c r="K80" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="81" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H81" s="3" t="s">
+        <v>2598</v>
+      </c>
+      <c r="I81" s="3">
+        <v>1</v>
+      </c>
+      <c r="J81" s="3" t="s">
+        <v>2560</v>
+      </c>
+      <c r="K81" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="82" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H82" s="3" t="s">
+        <v>2599</v>
+      </c>
+      <c r="I82" s="3">
+        <v>1</v>
+      </c>
+      <c r="J82" s="3" t="e">
+        <f>- strain curve</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="K82" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="83" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H83" s="3" t="s">
+        <v>2600</v>
+      </c>
+      <c r="I83" s="3">
+        <v>1</v>
+      </c>
+      <c r="J83" s="3" t="s">
+        <v>2710</v>
+      </c>
+      <c r="K83" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="84" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H84" s="3" t="s">
+        <v>2601</v>
+      </c>
+      <c r="I84" s="3">
+        <v>1</v>
+      </c>
+      <c r="J84" s="3" t="s">
+        <v>2711</v>
+      </c>
+      <c r="K84" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="85" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H85" s="3" t="s">
+        <v>2602</v>
+      </c>
+      <c r="I85" s="3">
+        <v>1</v>
+      </c>
+      <c r="J85" s="3" t="s">
+        <v>2561</v>
+      </c>
+      <c r="K85" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="86" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H86" s="3" t="s">
+        <v>2603</v>
+      </c>
+      <c r="I86" s="3">
+        <v>1</v>
+      </c>
+      <c r="J86" s="3" t="s">
+        <v>2712</v>
+      </c>
+      <c r="K86" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="87" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H87" s="3" t="s">
+        <v>2604</v>
+      </c>
+      <c r="I87" s="3">
+        <v>1</v>
+      </c>
+      <c r="J87" s="3" t="s">
+        <v>2713</v>
+      </c>
+      <c r="K87" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="88" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H88" s="3" t="s">
+        <v>2605</v>
+      </c>
+      <c r="I88" s="3">
+        <v>1</v>
+      </c>
+      <c r="J88" s="3" t="s">
+        <v>2563</v>
+      </c>
+      <c r="K88" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="89" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H89" s="3" t="s">
+        <v>2606</v>
+      </c>
+      <c r="I89" s="3">
+        <v>1</v>
+      </c>
+      <c r="J89" s="3" t="s">
+        <v>2714</v>
+      </c>
+      <c r="K89" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="90" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H90" s="3" t="s">
+        <v>2607</v>
+      </c>
+      <c r="I90" s="3">
+        <v>1</v>
+      </c>
+      <c r="J90" s="3" t="s">
+        <v>2537</v>
+      </c>
+      <c r="K90" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="91" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H91" s="3" t="s">
+        <v>2608</v>
+      </c>
+      <c r="I91" s="3">
+        <v>1</v>
+      </c>
+      <c r="J91" s="3" t="s">
+        <v>2565</v>
+      </c>
+      <c r="K91" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="92" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H92" s="3" t="s">
+        <v>2609</v>
+      </c>
+      <c r="I92" s="3">
+        <v>1</v>
+      </c>
+      <c r="J92" s="3" t="s">
+        <v>2715</v>
+      </c>
+      <c r="K92" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="93" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H93" s="3" t="s">
+        <v>2610</v>
+      </c>
+      <c r="I93" s="3">
+        <v>1</v>
+      </c>
+      <c r="J93" s="3" t="s">
+        <v>2566</v>
+      </c>
+      <c r="K93" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="94" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H94" s="3" t="s">
+        <v>2611</v>
+      </c>
+      <c r="I94" s="3">
+        <v>1</v>
+      </c>
+      <c r="J94" s="3" t="s">
+        <v>2567</v>
+      </c>
+      <c r="K94" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="95" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H95" s="3" t="s">
+        <v>2612</v>
+      </c>
+      <c r="I95" s="3">
+        <v>1</v>
+      </c>
+      <c r="J95" s="3" t="s">
+        <v>2716</v>
+      </c>
+      <c r="K95" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="96" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H96" s="3" t="s">
+        <v>2613</v>
+      </c>
+      <c r="I96" s="3">
+        <v>1</v>
+      </c>
+      <c r="J96" s="3" t="s">
+        <v>2717</v>
+      </c>
+      <c r="K96" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="97" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H97" s="3" t="s">
+        <v>2614</v>
+      </c>
+      <c r="I97" s="3">
+        <v>1</v>
+      </c>
+      <c r="J97" s="3" t="s">
+        <v>2718</v>
+      </c>
+      <c r="K97" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="98" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H98" s="3" t="s">
+        <v>2615</v>
+      </c>
+      <c r="I98" s="3">
+        <v>1</v>
+      </c>
+      <c r="J98" s="3" t="s">
+        <v>2719</v>
+      </c>
+      <c r="K98" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="99" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H99" s="3" t="s">
+        <v>2616</v>
+      </c>
+      <c r="I99" s="3">
+        <v>1</v>
+      </c>
+      <c r="J99" s="3" t="s">
+        <v>2570</v>
+      </c>
+      <c r="K99" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="100" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H100" s="3" t="s">
+        <v>2617</v>
+      </c>
+      <c r="I100" s="3">
+        <v>1</v>
+      </c>
+      <c r="J100" s="3" t="s">
+        <v>2720</v>
+      </c>
+      <c r="K100" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="101" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H101" s="3" t="s">
+        <v>2618</v>
+      </c>
+      <c r="I101" s="3">
+        <v>1</v>
+      </c>
+      <c r="J101" s="3" t="s">
+        <v>2721</v>
+      </c>
+      <c r="K101" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="102" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H102" s="3" t="s">
+        <v>2619</v>
+      </c>
+      <c r="I102" s="3">
+        <v>1</v>
+      </c>
+      <c r="J102" s="3" t="s">
+        <v>2722</v>
+      </c>
+      <c r="K102" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="103" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H103" s="3" t="s">
+        <v>2620</v>
+      </c>
+      <c r="I103" s="3">
+        <v>1</v>
+      </c>
+      <c r="J103" s="3" t="s">
+        <v>2573</v>
+      </c>
+      <c r="K103" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="104" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H104" s="3" t="s">
+        <v>2621</v>
+      </c>
+      <c r="I104" s="3">
+        <v>1</v>
+      </c>
+      <c r="J104" s="3" t="s">
+        <v>2723</v>
+      </c>
+      <c r="K104" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="105" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H105" s="3" t="s">
+        <v>2622</v>
+      </c>
+      <c r="I105" s="3">
+        <v>1</v>
+      </c>
+      <c r="J105" s="3" t="s">
+        <v>2574</v>
+      </c>
+      <c r="K105" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="106" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H106" s="3" t="s">
+        <v>2623</v>
+      </c>
+      <c r="I106" s="3">
+        <v>1</v>
+      </c>
+      <c r="J106" s="3" t="s">
+        <v>2724</v>
+      </c>
+      <c r="K106" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="107" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H107" s="3" t="s">
+        <v>2624</v>
+      </c>
+      <c r="I107" s="3">
+        <v>1</v>
+      </c>
+      <c r="J107" s="3" t="s">
+        <v>2576</v>
+      </c>
+      <c r="K107" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="108" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H108" s="3" t="s">
+        <v>2625</v>
+      </c>
+      <c r="I108" s="3">
+        <v>1</v>
+      </c>
+      <c r="J108" s="3" t="s">
+        <v>2725</v>
+      </c>
+      <c r="K108" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="109" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H109" s="3" t="s">
+        <v>2626</v>
+      </c>
+      <c r="I109" s="3">
+        <v>1</v>
+      </c>
+      <c r="J109" s="3" t="s">
+        <v>2726</v>
+      </c>
+      <c r="K109" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="110" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H110" s="3" t="s">
+        <v>2627</v>
+      </c>
+      <c r="I110" s="3">
+        <v>1</v>
+      </c>
+      <c r="J110" s="3" t="s">
+        <v>2578</v>
+      </c>
+      <c r="K110" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="111" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H111" s="3" t="s">
+        <v>2628</v>
+      </c>
+      <c r="I111" s="3">
+        <v>1</v>
+      </c>
+      <c r="J111" s="3" t="s">
+        <v>2727</v>
+      </c>
+      <c r="K111" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="112" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H112" s="3" t="s">
+        <v>2629</v>
+      </c>
+      <c r="I112" s="3">
+        <v>1</v>
+      </c>
+      <c r="J112" s="3" t="s">
+        <v>2550</v>
+      </c>
+      <c r="K112" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="113" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H113" s="3" t="s">
+        <v>2630</v>
+      </c>
+      <c r="I113" s="3">
+        <v>1</v>
+      </c>
+      <c r="J113" s="3" t="s">
+        <v>2728</v>
+      </c>
+      <c r="K113" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="114" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H114" s="3" t="s">
+        <v>2631</v>
+      </c>
+      <c r="I114" s="3">
+        <v>1</v>
+      </c>
+      <c r="J114" s="3" t="s">
+        <v>2729</v>
+      </c>
+      <c r="K114" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H115" s="3" t="s">
+        <v>2632</v>
+      </c>
+      <c r="I115" s="3">
+        <v>1</v>
+      </c>
+      <c r="J115" s="3" t="s">
+        <v>2580</v>
+      </c>
+      <c r="K115" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H116" s="3" t="s">
+        <v>2633</v>
+      </c>
+      <c r="I116" s="3">
+        <v>1</v>
+      </c>
+      <c r="J116" s="3" t="s">
+        <v>2730</v>
+      </c>
+      <c r="K116" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H117" s="3" t="s">
+        <v>2634</v>
+      </c>
+      <c r="I117" s="3">
+        <v>1</v>
+      </c>
+      <c r="J117" s="3" t="s">
+        <v>2731</v>
+      </c>
+      <c r="K117" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H118" s="3" t="s">
+        <v>2635</v>
+      </c>
+      <c r="I118" s="3">
+        <v>1</v>
+      </c>
+      <c r="J118" s="3" t="s">
+        <v>2732</v>
+      </c>
+      <c r="K118" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="119" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H119" s="3" t="s">
+        <v>2636</v>
+      </c>
+      <c r="I119" s="3">
+        <v>1</v>
+      </c>
+      <c r="J119" s="3" t="s">
+        <v>2583</v>
+      </c>
+      <c r="K119" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="120" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H120" s="3" t="s">
+        <v>2637</v>
+      </c>
+      <c r="I120" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="121" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H121" s="3" t="s">
+        <v>2638</v>
+      </c>
+      <c r="I121" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="122" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H122" s="3" t="s">
+        <v>2639</v>
+      </c>
+      <c r="I122" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="123" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H123" s="3" t="s">
+        <v>2640</v>
+      </c>
+      <c r="I123" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="124" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H124" s="3" t="s">
+        <v>2641</v>
+      </c>
+      <c r="I124" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="125" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H125" s="3" t="s">
+        <v>2642</v>
+      </c>
+      <c r="I125" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="126" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H126" s="3" t="s">
+        <v>2643</v>
+      </c>
+      <c r="I126" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="127" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H127" s="3" t="s">
+        <v>2644</v>
+      </c>
+      <c r="I127" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="128" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H128" s="3" t="s">
+        <v>2645</v>
+      </c>
+      <c r="I128" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="129" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H129" s="3" t="s">
+        <v>2646</v>
+      </c>
+      <c r="I129" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="130" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H130" s="3" t="s">
+        <v>2647</v>
+      </c>
+      <c r="I130" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="131" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H131" s="3" t="s">
+        <v>2648</v>
+      </c>
+      <c r="I131" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="132" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H132" s="3" t="s">
+        <v>2649</v>
+      </c>
+      <c r="I132" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="133" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H133" s="3" t="s">
+        <v>2650</v>
+      </c>
+      <c r="I133" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="134" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H134" s="3" t="s">
+        <v>2651</v>
+      </c>
+      <c r="I134" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="135" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H135" s="3" t="s">
+        <v>2652</v>
+      </c>
+      <c r="I135" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="136" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H136" s="3" t="s">
+        <v>2653</v>
+      </c>
+      <c r="I136" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="137" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H137" s="3" t="s">
+        <v>2654</v>
+      </c>
+      <c r="I137" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="138" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H138" s="3" t="s">
+        <v>2655</v>
+      </c>
+      <c r="I138" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="139" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H139" s="3" t="s">
+        <v>2656</v>
+      </c>
+      <c r="I139" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="140" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H140" s="3" t="s">
+        <v>2657</v>
+      </c>
+      <c r="I140" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="141" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H141" s="3" t="s">
+        <v>2658</v>
+      </c>
+      <c r="I141" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="142" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H142" s="3" t="s">
+        <v>2659</v>
+      </c>
+      <c r="I142" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="143" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H143" s="3" t="s">
+        <v>2660</v>
+      </c>
+      <c r="I143" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="144" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H144" s="3" t="s">
+        <v>2661</v>
+      </c>
+      <c r="I144" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="145" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H145" s="3" t="s">
+        <v>2662</v>
+      </c>
+      <c r="I145" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="146" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H146" s="3" t="s">
+        <v>2663</v>
+      </c>
+      <c r="I146" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="147" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H147" s="3" t="s">
+        <v>2664</v>
+      </c>
+      <c r="I147" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="148" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H148" s="3" t="s">
+        <v>2665</v>
+      </c>
+      <c r="I148" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="149" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H149" s="3" t="s">
+        <v>2666</v>
+      </c>
+      <c r="I149" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="150" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H150" s="3" t="s">
+        <v>2667</v>
+      </c>
+      <c r="I150" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="151" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H151" s="3" t="s">
+        <v>2668</v>
+      </c>
+      <c r="I151" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="152" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H152" s="3" t="s">
+        <v>2669</v>
+      </c>
+      <c r="I152" s="3">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/data/data.xlsx
+++ b/data/data.xlsx
@@ -4,14 +4,14 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="3" activeTab="7"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="1" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
     <sheet name="word count of TA's summary" sheetId="3" r:id="rId3"/>
     <sheet name="TA's sort by word count" sheetId="4" r:id="rId4"/>
-    <sheet name="Sheet4" sheetId="5" r:id="rId5"/>
+    <sheet name="Student's responses" sheetId="5" r:id="rId5"/>
     <sheet name="Weekly" sheetId="6" r:id="rId6"/>
     <sheet name="Mead's summary" sheetId="7" r:id="rId7"/>
     <sheet name="Sheet2" sheetId="8" r:id="rId8"/>
@@ -8815,11 +8815,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="271898568"/>
-        <c:axId val="271898960"/>
+        <c:axId val="252821200"/>
+        <c:axId val="252820808"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="271898568"/>
+        <c:axId val="252821200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8916,7 +8916,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="271898960"/>
+        <c:crossAx val="252820808"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -8924,7 +8924,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="271898960"/>
+        <c:axId val="252820808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9030,7 +9030,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="271898568"/>
+        <c:crossAx val="252821200"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -9355,11 +9355,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="271901312"/>
-        <c:axId val="271901704"/>
+        <c:axId val="252820416"/>
+        <c:axId val="252820024"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="271901312"/>
+        <c:axId val="252820416"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9456,7 +9456,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="271901704"/>
+        <c:crossAx val="252820024"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -9464,7 +9464,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="271901704"/>
+        <c:axId val="252820024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9570,7 +9570,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="271901312"/>
+        <c:crossAx val="252820416"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -11466,8 +11466,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AI30"/>
   <sheetViews>
-    <sheetView topLeftCell="P1" workbookViewId="0">
-      <selection activeCell="Y1" sqref="Y1:AE27"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13505,7 +13505,7 @@
   <dimension ref="A1:BH12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F7" sqref="A4:F7"/>
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14083,8 +14083,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:I59"/>
   <sheetViews>
-    <sheetView topLeftCell="A30" workbookViewId="0">
-      <selection activeCell="H40" sqref="H34:H40"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B41" sqref="B41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15112,11 +15112,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N824"/>
   <sheetViews>
-    <sheetView topLeftCell="A807" workbookViewId="0">
-      <selection activeCell="A666" sqref="A666"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13.7109375" customWidth="1"/>
+    <col min="4" max="4" width="16.5703125" customWidth="1"/>
+    <col min="7" max="7" width="18.42578125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -31473,7 +31478,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K152"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A105" workbookViewId="0">
+    <sheetView topLeftCell="A105" workbookViewId="0">
       <selection activeCell="H6" sqref="H6:K119"/>
     </sheetView>
   </sheetViews>

--- a/data/data.xlsx
+++ b/data/data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="1" activeTab="4"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="1" r:id="rId1"/>
@@ -8815,11 +8815,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="252821200"/>
-        <c:axId val="252820808"/>
+        <c:axId val="266521744"/>
+        <c:axId val="266522136"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="252821200"/>
+        <c:axId val="266521744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8916,7 +8916,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="252820808"/>
+        <c:crossAx val="266522136"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -8924,7 +8924,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="252820808"/>
+        <c:axId val="266522136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9030,7 +9030,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="252821200"/>
+        <c:crossAx val="266521744"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -9355,11 +9355,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="252820416"/>
-        <c:axId val="252820024"/>
+        <c:axId val="266520960"/>
+        <c:axId val="261839480"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="252820416"/>
+        <c:axId val="266520960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9456,7 +9456,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="252820024"/>
+        <c:crossAx val="261839480"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -9464,7 +9464,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="252820024"/>
+        <c:axId val="261839480"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9570,7 +9570,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="252820416"/>
+        <c:crossAx val="266520960"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -11466,8 +11466,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AI30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K8" sqref="K8"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="K28" sqref="K28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13439,6 +13439,18 @@
         <f>AVERAGE(J3:J14)</f>
         <v>3.5833333333333335</v>
       </c>
+      <c r="K28" s="1">
+        <f>AVERAGE(K3:K14)</f>
+        <v>35.416666666666664</v>
+      </c>
+      <c r="L28" s="1">
+        <f t="shared" ref="L28:M28" si="4">AVERAGE(L3:L14)</f>
+        <v>43.25</v>
+      </c>
+      <c r="M28" s="1">
+        <f t="shared" si="4"/>
+        <v>24.25</v>
+      </c>
     </row>
     <row r="29" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
@@ -13449,23 +13461,23 @@
         <v>3.4200832880164915</v>
       </c>
       <c r="F29" s="2">
-        <f t="shared" ref="F29:J29" si="4">STDEV(F3:F14)</f>
+        <f t="shared" ref="F29:J29" si="5">STDEV(F3:F14)</f>
         <v>3.3967453227875044</v>
       </c>
       <c r="G29" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>3.3967453227875044</v>
       </c>
       <c r="H29" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2.208797835653566</v>
       </c>
       <c r="I29" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2.6784776318353725</v>
       </c>
       <c r="J29" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.7816403745544227</v>
       </c>
     </row>
@@ -13478,11 +13490,11 @@
         <v>-0.82233215166967744</v>
       </c>
       <c r="I30" s="2">
-        <f t="shared" ref="I30:J30" si="5">CORREL(I3:I14, F3:F14)</f>
+        <f t="shared" ref="I30:J30" si="6">CORREL(I3:I14, F3:F14)</f>
         <v>-0.73358588635800692</v>
       </c>
       <c r="J30" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>-0.4969738570781343</v>
       </c>
     </row>
@@ -13505,7 +13517,7 @@
   <dimension ref="A1:BH12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection activeCell="B5" sqref="B5:D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15112,7 +15124,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N824"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
